--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2335F76-9379-4E6A-93DE-D20BFC0AA62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E998AE8-2F74-4592-B00B-04E6A895B096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="中青杯" sheetId="8" r:id="rId9"/>
     <sheet name="APMCM" sheetId="9" r:id="rId10"/>
     <sheet name="电工杯" sheetId="11" r:id="rId11"/>
+    <sheet name="数维杯" sheetId="12" r:id="rId12"/>
+    <sheet name="东三省" sheetId="13" r:id="rId13"/>
+    <sheet name="华东杯" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="765">
   <si>
     <t>数据驱动的城市轨道交通网络优化策略</t>
   </si>
@@ -2232,12 +2235,234 @@
     <t>官方未公布论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A题   我国省际生态环境与经济交互状况的综合评价</t>
+  </si>
+  <si>
+    <t>C题   共享汽车最优调度与定价策略探讨</t>
+  </si>
+  <si>
+    <t>A题 外卖骑手的送餐危机</t>
+  </si>
+  <si>
+    <t>B题 中小城市地铁运营与建设优化设计</t>
+  </si>
+  <si>
+    <t>C题 运动会优化比赛模式探索</t>
+  </si>
+  <si>
+    <t>A题舆情监测情感倾向分析建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B题 以家庭为单位的小规模多品种绿色农畜产品经营模式开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C题 垃圾转运优化模型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B题   火灾等级评价与快速救援措施优化</t>
+  </si>
+  <si>
+    <t>A：预测分析模型来判断我国目前的老龄化程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：如何利用无人机拍摄出令人满意的照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A：钢筋市场需求动态的预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：股票价格预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C：合理的道路除雪方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:中国猪肉价格波动分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际赛(小美赛)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 车辆类型与数量的自动检测</t>
+  </si>
+  <si>
+    <t>A城市空气污染数据的真实性判别及分析研究</t>
+  </si>
+  <si>
+    <t>A题华为网络侧视频体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B题工商银行ATM机交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C题垃圾处理总成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D题蔬菜检测抽样方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E题手机销售量预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F题全面二孩政策对中国人口的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用深圳杯题目</t>
+  </si>
+  <si>
+    <t>使用深圳杯题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛题A-新型冠状病毒疫情</t>
+  </si>
+  <si>
+    <t>赛题B-室内温度调控问题</t>
+  </si>
+  <si>
+    <t>E：我国水资源现状的分析及发展预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:  城市供水管网片区用水异常模式识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:  延迟生育对人口的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-D使用深圳杯题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A题 机器人扔瓶子</t>
+  </si>
+  <si>
+    <t>B题 建立新冠病毒群体免疫屏障</t>
+  </si>
+  <si>
+    <t>C题 布线问题</t>
+  </si>
+  <si>
+    <t>垃圾填埋场的臭气污染 </t>
+  </si>
+  <si>
+    <t>自动驾驶（不局限于飞机）应该遵循怎样的原则？</t>
+  </si>
+  <si>
+    <t>建立确定蒙气差的数学模型</t>
+  </si>
+  <si>
+    <t>如果你要购车，你准备怎样选择？</t>
+  </si>
+  <si>
+    <t>研究如何空投物资，使得救灾物资能降落在指定的区域。</t>
+  </si>
+  <si>
+    <t>析过去10年宏观调控中的得与失，预测未来3年可能出现的宏观经济风险，给出宏观调控的建议。</t>
+  </si>
+  <si>
+    <t>露天大排档油烟污染对居民生活的影响</t>
+  </si>
+  <si>
+    <t>高铁（动车）车票价格的界定</t>
+  </si>
+  <si>
+    <t>货物配送问题</t>
+  </si>
+  <si>
+    <t>上海迪士尼乐园的交通疏散问题</t>
+  </si>
+  <si>
+    <t>确定山体海拔高度</t>
+  </si>
+  <si>
+    <t>A 职工疗养安排</t>
+  </si>
+  <si>
+    <t>B 左转弯待转区</t>
+  </si>
+  <si>
+    <t>C 血型、星座与职业</t>
+  </si>
+  <si>
+    <t>述电力网络动态运行的数学模型</t>
+  </si>
+  <si>
+    <t>出租车打车模式的现状和未来</t>
+  </si>
+  <si>
+    <t>污水排放问题</t>
+  </si>
+  <si>
+    <t>A题  网上订餐配送</t>
+  </si>
+  <si>
+    <t>B题  美国经济的走势分析</t>
+  </si>
+  <si>
+    <t>C题  减少药片污染问题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南海造岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计出你的蓝图和最佳施工方案，并请给出经济预算。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2379,6 +2604,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2463,7 +2738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2542,6 +2817,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2550,15 +2834,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2586,6 +2861,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3342,6 +3641,662 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AE54B3-A4DB-45FA-8699-E1BC832F135A}">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>718</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>719</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>721</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B3CEB5-4ACF-44B9-9391-87BF760EE005}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22">
+        <v>2016</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA7F449-CE48-42C9-9248-4802CA3CD6BB}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="44">
+        <v>2021</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>744</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>745</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>748</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>749</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>752</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="44">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>753</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="44">
+        <v>2015</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>755</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>756</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
+        <v>757</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="44">
+        <v>2014</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>759</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>760</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CF2AA-8C2B-432D-9350-2C8F7C538763}">
   <dimension ref="A1:A163"/>
@@ -4078,1876 +5033,2133 @@
       <c r="B3" s="32">
         <v>2006</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="29" t="s">
         <v>477</v>
       </c>
       <c r="J3" s="17"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="30"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="33"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="30"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="29" t="s">
         <v>483</v>
       </c>
       <c r="J6" s="17"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="30"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="30"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="29" t="s">
         <v>490</v>
       </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="30"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="30"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>2007</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="29" t="s">
         <v>495</v>
       </c>
       <c r="J12" s="17"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="30"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="30"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="29" t="s">
         <v>498</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>499</v>
       </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="36"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="30"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="37"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="30"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="29" t="s">
         <v>504</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="30"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="30"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="32">
         <v>2008</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="29" t="s">
         <v>509</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="29"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="29" t="s">
         <v>515</v>
       </c>
       <c r="J24" s="17"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="19"/>
-      <c r="K26" s="30"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="29" t="s">
         <v>520</v>
       </c>
       <c r="J27" s="17"/>
-      <c r="K27" s="30"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="34"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="31"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="32">
         <v>2009</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="29" t="s">
         <v>525</v>
       </c>
       <c r="J30" s="17"/>
-      <c r="K30" s="29"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="30"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="33"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="30"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="29" t="s">
         <v>531</v>
       </c>
       <c r="J33" s="17"/>
-      <c r="K33" s="30"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="30"/>
+      <c r="K34" s="27"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="30"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="29" t="s">
         <v>536</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="30"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="18"/>
-      <c r="K37" s="30"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="34"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="19"/>
-      <c r="K38" s="31"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="32">
         <v>2010</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="29" t="s">
         <v>542</v>
       </c>
       <c r="J39" s="17"/>
-      <c r="K39" s="29"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="30"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="33"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="30"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="33"/>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="29" t="s">
         <v>547</v>
       </c>
       <c r="J42" s="17"/>
-      <c r="K42" s="30"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="33"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="30"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="33"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="30"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="29" t="s">
         <v>552</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="I45" s="29" t="s">
         <v>553</v>
       </c>
       <c r="J45" s="17"/>
-      <c r="K45" s="30"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="30"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="34"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="19"/>
-      <c r="K47" s="31"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="32">
         <v>2011</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I48" s="29" t="s">
         <v>557</v>
       </c>
       <c r="J48" s="17"/>
-      <c r="K48" s="29"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="33"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="18"/>
-      <c r="K49" s="30"/>
+      <c r="K49" s="27"/>
     </row>
     <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="33"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="30"/>
+      <c r="K50" s="27"/>
     </row>
     <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="33"/>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="I51" s="29" t="s">
         <v>562</v>
       </c>
       <c r="J51" s="17"/>
-      <c r="K51" s="30"/>
+      <c r="K51" s="27"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="33"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
       <c r="J52" s="18"/>
-      <c r="K52" s="30"/>
+      <c r="K52" s="27"/>
     </row>
     <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="33"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="19"/>
-      <c r="K53" s="30"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="33"/>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="29" t="s">
         <v>564</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="29" t="s">
         <v>567</v>
       </c>
       <c r="J54" s="17"/>
-      <c r="K54" s="30"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="33"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="18"/>
-      <c r="K55" s="30"/>
+      <c r="K55" s="27"/>
     </row>
     <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="34"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
       <c r="J56" s="19"/>
-      <c r="K56" s="31"/>
+      <c r="K56" s="28"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="32">
         <v>2012</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="I57" s="29" t="s">
         <v>573</v>
       </c>
       <c r="J57" s="17"/>
-      <c r="K57" s="29"/>
+      <c r="K57" s="26"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="18"/>
-      <c r="K58" s="30"/>
+      <c r="K58" s="27"/>
     </row>
     <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="33"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
       <c r="J59" s="19"/>
-      <c r="K59" s="30"/>
+      <c r="K59" s="27"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="33"/>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="I60" s="29" t="s">
         <v>578</v>
       </c>
       <c r="J60" s="17"/>
-      <c r="K60" s="30"/>
+      <c r="K60" s="27"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="33"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="27"/>
     </row>
     <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="33"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="19"/>
-      <c r="K62" s="30"/>
+      <c r="K62" s="27"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="33"/>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="I63" s="26" t="s">
+      <c r="I63" s="29" t="s">
         <v>582</v>
       </c>
       <c r="J63" s="17"/>
-      <c r="K63" s="30"/>
+      <c r="K63" s="27"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
       <c r="J64" s="18"/>
-      <c r="K64" s="30"/>
+      <c r="K64" s="27"/>
     </row>
     <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="34"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
       <c r="J65" s="19"/>
-      <c r="K65" s="31"/>
+      <c r="K65" s="28"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="32">
         <v>2013</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="29" t="s">
         <v>587</v>
       </c>
       <c r="J66" s="17"/>
-      <c r="K66" s="29"/>
+      <c r="K66" s="26"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="33"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
       <c r="J67" s="18"/>
-      <c r="K67" s="30"/>
+      <c r="K67" s="27"/>
     </row>
     <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="33"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
       <c r="J68" s="19"/>
-      <c r="K68" s="30"/>
+      <c r="K68" s="27"/>
     </row>
     <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="33"/>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="29" t="s">
         <v>592</v>
       </c>
       <c r="J69" s="17"/>
-      <c r="K69" s="30"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="33"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
       <c r="J70" s="18"/>
-      <c r="K70" s="30"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="33"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="19"/>
-      <c r="K71" s="30"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="33"/>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="I72" s="26" t="s">
+      <c r="I72" s="29" t="s">
         <v>597</v>
       </c>
       <c r="J72" s="17"/>
-      <c r="K72" s="30"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="33"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
       <c r="J73" s="18"/>
-      <c r="K73" s="30"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="34"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="19"/>
-      <c r="K74" s="31"/>
+      <c r="K74" s="28"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="32">
         <v>2014</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="E75" s="26" t="s">
+      <c r="E75" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="G75" s="26" t="s">
+      <c r="G75" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="I75" s="26" t="s">
+      <c r="I75" s="29" t="s">
         <v>603</v>
       </c>
       <c r="J75" s="17"/>
-      <c r="K75" s="29"/>
+      <c r="K75" s="26"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="33"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
       <c r="J76" s="18"/>
-      <c r="K76" s="30"/>
+      <c r="K76" s="27"/>
     </row>
     <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="33"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
       <c r="J77" s="19"/>
-      <c r="K77" s="30"/>
+      <c r="K77" s="27"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="33"/>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H78" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="I78" s="26" t="s">
+      <c r="I78" s="29" t="s">
         <v>609</v>
       </c>
       <c r="J78" s="17"/>
-      <c r="K78" s="30"/>
+      <c r="K78" s="27"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="33"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
       <c r="J79" s="18"/>
-      <c r="K79" s="30"/>
+      <c r="K79" s="27"/>
     </row>
     <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="33"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="19"/>
-      <c r="K80" s="30"/>
+      <c r="K80" s="27"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="33"/>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="29" t="s">
         <v>610</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="G81" s="29" t="s">
         <v>612</v>
       </c>
-      <c r="H81" s="26" t="s">
+      <c r="H81" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="I81" s="26" t="s">
+      <c r="I81" s="29" t="s">
         <v>614</v>
       </c>
       <c r="J81" s="17"/>
-      <c r="K81" s="30"/>
+      <c r="K81" s="27"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="33"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
       <c r="J82" s="18"/>
-      <c r="K82" s="30"/>
+      <c r="K82" s="27"/>
     </row>
     <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="34"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
       <c r="J83" s="19"/>
-      <c r="K83" s="31"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="32">
         <v>2015</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="F84" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G84" s="26" t="s">
+      <c r="G84" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="H84" s="26" t="s">
+      <c r="H84" s="29" t="s">
         <v>617</v>
       </c>
-      <c r="I84" s="26" t="s">
+      <c r="I84" s="29" t="s">
         <v>618</v>
       </c>
       <c r="J84" s="17"/>
-      <c r="K84" s="29"/>
+      <c r="K84" s="26"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="33"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
       <c r="J85" s="18"/>
-      <c r="K85" s="30"/>
+      <c r="K85" s="27"/>
     </row>
     <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="33"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
       <c r="J86" s="19"/>
-      <c r="K86" s="30"/>
+      <c r="K86" s="27"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="33"/>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="F87" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="I87" s="26" t="s">
+      <c r="I87" s="29" t="s">
         <v>623</v>
       </c>
       <c r="J87" s="17"/>
-      <c r="K87" s="30"/>
+      <c r="K87" s="27"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="33"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
       <c r="J88" s="18"/>
-      <c r="K88" s="30"/>
+      <c r="K88" s="27"/>
     </row>
     <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="33"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
       <c r="J89" s="19"/>
-      <c r="K89" s="30"/>
+      <c r="K89" s="27"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="33"/>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="29" t="s">
         <v>625</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="F90" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="H90" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="I90" s="26" t="s">
+      <c r="I90" s="29" t="s">
         <v>630</v>
       </c>
       <c r="J90" s="17"/>
-      <c r="K90" s="30"/>
+      <c r="K90" s="27"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="33"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
       <c r="J91" s="18"/>
-      <c r="K91" s="30"/>
+      <c r="K91" s="27"/>
     </row>
     <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="33"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
       <c r="J92" s="19"/>
-      <c r="K92" s="30"/>
+      <c r="K92" s="27"/>
     </row>
     <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="33"/>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="F93" s="26" t="s">
+      <c r="F93" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="H93" s="26" t="s">
+      <c r="H93" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="I93" s="26" t="s">
+      <c r="I93" s="29" t="s">
         <v>635</v>
       </c>
       <c r="J93" s="17"/>
-      <c r="K93" s="30"/>
+      <c r="K93" s="27"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="33"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
       <c r="J94" s="18"/>
-      <c r="K94" s="30"/>
+      <c r="K94" s="27"/>
     </row>
     <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="34"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
       <c r="J95" s="19"/>
-      <c r="K95" s="31"/>
+      <c r="K95" s="28"/>
     </row>
     <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="32">
         <v>2016</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="29" t="s">
         <v>637</v>
       </c>
-      <c r="F96" s="26" t="s">
+      <c r="F96" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="I96" s="26" t="s">
+      <c r="I96" s="29" t="s">
         <v>640</v>
       </c>
       <c r="J96" s="17"/>
-      <c r="K96" s="29"/>
+      <c r="K96" s="26"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="33"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
       <c r="J97" s="18"/>
-      <c r="K97" s="30"/>
+      <c r="K97" s="27"/>
     </row>
     <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="33"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
       <c r="J98" s="19"/>
-      <c r="K98" s="30"/>
+      <c r="K98" s="27"/>
     </row>
     <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="33"/>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="H99" s="26" t="s">
+      <c r="H99" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="I99" s="26" t="s">
+      <c r="I99" s="29" t="s">
         <v>645</v>
       </c>
       <c r="J99" s="17"/>
-      <c r="K99" s="30"/>
+      <c r="K99" s="27"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="33"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
       <c r="J100" s="18"/>
-      <c r="K100" s="30"/>
+      <c r="K100" s="27"/>
     </row>
     <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="33"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
       <c r="J101" s="19"/>
-      <c r="K101" s="30"/>
+      <c r="K101" s="27"/>
     </row>
     <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="33"/>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="29" t="s">
         <v>647</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="29" t="s">
         <v>648</v>
       </c>
-      <c r="F102" s="26" t="s">
+      <c r="F102" s="29" t="s">
         <v>649</v>
       </c>
-      <c r="G102" s="26" t="s">
+      <c r="G102" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="I102" s="26" t="s">
+      <c r="I102" s="29" t="s">
         <v>652</v>
       </c>
       <c r="J102" s="17"/>
-      <c r="K102" s="30"/>
+      <c r="K102" s="27"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="33"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
       <c r="J103" s="18"/>
-      <c r="K103" s="30"/>
+      <c r="K103" s="27"/>
     </row>
     <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="33"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
       <c r="J104" s="19"/>
-      <c r="K104" s="30"/>
+      <c r="K104" s="27"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="33"/>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="29" t="s">
         <v>654</v>
       </c>
-      <c r="F105" s="26" t="s">
+      <c r="F105" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="G105" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H105" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="I105" s="26" t="s">
+      <c r="I105" s="29" t="s">
         <v>656</v>
       </c>
       <c r="J105" s="17"/>
-      <c r="K105" s="30"/>
+      <c r="K105" s="27"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="33"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
       <c r="J106" s="18"/>
-      <c r="K106" s="30"/>
+      <c r="K106" s="27"/>
     </row>
     <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="33"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
       <c r="J107" s="19"/>
-      <c r="K107" s="30"/>
+      <c r="K107" s="27"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="33"/>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="F108" s="26" t="s">
+      <c r="F108" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G108" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="H108" s="26" t="s">
+      <c r="H108" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="I108" s="26" t="s">
+      <c r="I108" s="29" t="s">
         <v>662</v>
       </c>
       <c r="J108" s="17"/>
-      <c r="K108" s="30"/>
+      <c r="K108" s="27"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="33"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
       <c r="J109" s="18"/>
-      <c r="K109" s="30"/>
+      <c r="K109" s="27"/>
     </row>
     <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="33"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
       <c r="J110" s="19"/>
-      <c r="K110" s="30"/>
+      <c r="K110" s="27"/>
     </row>
     <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="33"/>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="29" t="s">
         <v>664</v>
       </c>
-      <c r="E111" s="26" t="s">
+      <c r="E111" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="F111" s="26" t="s">
+      <c r="F111" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="G111" s="26" t="s">
+      <c r="G111" s="29" t="s">
         <v>666</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="29" t="s">
         <v>667</v>
       </c>
-      <c r="I111" s="26" t="s">
+      <c r="I111" s="29" t="s">
         <v>668</v>
       </c>
       <c r="J111" s="17"/>
-      <c r="K111" s="30"/>
+      <c r="K111" s="27"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="33"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
       <c r="J112" s="18"/>
-      <c r="K112" s="30"/>
+      <c r="K112" s="27"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="34"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
       <c r="J113" s="19"/>
-      <c r="K113" s="31"/>
+      <c r="K113" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -5972,263 +7184,6 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7074,7 +8029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01952BBE-0128-400F-8B69-81ADD09E9B45}">
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E998AE8-2F74-4592-B00B-04E6A895B096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BB2AFF-240B-43ED-A1B0-E4CFB55FA261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="769">
   <si>
     <t>数据驱动的城市轨道交通网络优化策略</t>
   </si>
@@ -2456,6 +2456,18 @@
       <t>设计出你的蓝图和最佳施工方案，并请给出经济预算。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于图像的二氧化硅熔化表示模型分析</t>
+  </si>
+  <si>
+    <t>区域经济活力及其影响因素分析与决策</t>
+  </si>
+  <si>
+    <t>激光标记舱口轮廓生成</t>
+  </si>
+  <si>
+    <t>美国总统候选人对美国和中国的经济影响分析</t>
   </si>
 </sst>
 </file>
@@ -2570,12 +2582,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF444444"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -2653,6 +2659,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2781,14 +2795,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2799,24 +2861,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2824,6 +2868,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,24 +2888,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2861,27 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3508,117 +3522,138 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F0A86-47AF-44BB-BF68-19660EB181D7}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="1" max="1" width="48" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
+      <c r="A1" s="21">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="21" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="21" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="21">
         <v>2015</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="21" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="21" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="21">
         <v>2016</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="48" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="21" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="48" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-    </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="21">
         <v>2017</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="21" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="21">
         <v>2018</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="21" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="21" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -3656,168 +3691,168 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="26" t="s">
         <v>723</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="26" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>2019</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="25" t="s">
         <v>718</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>2020</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>713</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>715</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>2021</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>711</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3830,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B3CEB5-4ACF-44B9-9391-87BF760EE005}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3840,119 +3875,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22">
+      <c r="A1" s="21">
         <v>2016</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>2017</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>2018</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>739</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -3963,7 +3998,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>734</v>
       </c>
     </row>
@@ -4018,278 +4053,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44">
+      <c r="A1" s="28">
         <v>2021</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="28" t="s">
         <v>741</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="28" t="s">
         <v>742</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="28" t="s">
         <v>743</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="28">
         <v>2020</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>761</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>762</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>763</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="28">
         <v>2019</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="28" t="s">
         <v>744</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="28" t="s">
         <v>745</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="28" t="s">
         <v>746</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="28">
         <v>2018</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="28" t="s">
         <v>747</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="28" t="s">
         <v>748</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="28" t="s">
         <v>749</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+      <c r="A21" s="28">
         <v>2017</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="29" t="s">
         <v>750</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="29" t="s">
         <v>751</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="28" t="s">
         <v>752</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="28">
         <v>2016</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="28" t="s">
         <v>753</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="30" t="s">
         <v>764</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="29" t="s">
         <v>754</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="28">
         <v>2015</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="28" t="s">
         <v>755</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="31" t="s">
         <v>756</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="31" t="s">
         <v>757</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="44">
+      <c r="A36" s="28">
         <v>2014</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="28" t="s">
         <v>758</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="32" t="s">
         <v>759</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="28" t="s">
         <v>760</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="27"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5002,2164 +5037,1907 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="32">
+      <c r="B3" s="39">
         <v>2006</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="26"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="27"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="27"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="27"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="27"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="27"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="28"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="32">
+      <c r="B12" s="39">
         <v>2007</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="27"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="27"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="27"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="27"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="27"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="27"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="28"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="32">
+      <c r="B21" s="39">
         <v>2008</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="26"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="27"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="27"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="27"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="27"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="27"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="27"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="27"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="28"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="32">
+      <c r="B30" s="39">
         <v>2009</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="26"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="27"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="27"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="33" t="s">
         <v>528</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="27"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="27"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="33"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="27"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="29" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="27"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="27"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="28"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="32">
+      <c r="B39" s="39">
         <v>2010</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="26"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="27"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="33"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="27"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="37"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="29" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="I42" s="29" t="s">
+      <c r="I42" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="27"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="27"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="37"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="33"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="27"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="29" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="27"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="27"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="34"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="28"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="32">
+      <c r="B48" s="39">
         <v>2011</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="26"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="27"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="33"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="27"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
-      <c r="C51" s="29" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I51" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="27"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="27"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="33"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="27"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="29" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="27"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="37"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="27"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="34"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="28"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="32">
+      <c r="B57" s="39">
         <v>2012</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I57" s="29" t="s">
+      <c r="I57" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="26"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="36"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="27"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="33"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="27"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
-      <c r="C60" s="29" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="27"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="33"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="27"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="33"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="27"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
-      <c r="C63" s="29" t="s">
+      <c r="B63" s="40"/>
+      <c r="C63" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="I63" s="29" t="s">
+      <c r="I63" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="J63" s="17"/>
-      <c r="K63" s="27"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="27"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="37"/>
     </row>
     <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="34"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="28"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="32">
+      <c r="B66" s="39">
         <v>2013</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="I66" s="29" t="s">
+      <c r="I66" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="J66" s="17"/>
-      <c r="K66" s="26"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="36"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="33"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="27"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="37"/>
     </row>
     <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="33"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="27"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="37"/>
     </row>
     <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
-      <c r="C69" s="29" t="s">
+      <c r="B69" s="40"/>
+      <c r="C69" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="I69" s="29" t="s">
+      <c r="I69" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="J69" s="17"/>
-      <c r="K69" s="27"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="37"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="27"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="33"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="27"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="37"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
-      <c r="C72" s="29" t="s">
+      <c r="B72" s="40"/>
+      <c r="C72" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="27"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="27"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="37"/>
     </row>
     <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="34"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="28"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="32">
+      <c r="B75" s="39">
         <v>2014</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="J75" s="17"/>
-      <c r="K75" s="26"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="36"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="33"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="27"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="37"/>
     </row>
     <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="33"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="27"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="37"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="33"/>
-      <c r="C78" s="29" t="s">
+      <c r="B78" s="40"/>
+      <c r="C78" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G78" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="H78" s="29" t="s">
+      <c r="H78" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="I78" s="29" t="s">
+      <c r="I78" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="27"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="37"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="33"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="27"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="37"/>
     </row>
     <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="33"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="27"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="37"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="33"/>
-      <c r="C81" s="29" t="s">
+      <c r="B81" s="40"/>
+      <c r="C81" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G81" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H81" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="I81" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="J81" s="17"/>
-      <c r="K81" s="27"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="37"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="27"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="37"/>
     </row>
     <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="34"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="28"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="32">
+      <c r="B84" s="39">
         <v>2015</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="I84" s="33" t="s">
         <v>618</v>
       </c>
-      <c r="J84" s="17"/>
-      <c r="K84" s="26"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="36"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="33"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="27"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="37"/>
     </row>
     <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="33"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="27"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="37"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="33"/>
-      <c r="C87" s="29" t="s">
+      <c r="B87" s="40"/>
+      <c r="C87" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D87" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="F87" s="29" t="s">
+      <c r="F87" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="H87" s="29" t="s">
+      <c r="H87" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="I87" s="29" t="s">
+      <c r="I87" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="27"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="37"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="33"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="27"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="37"/>
     </row>
     <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="33"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="27"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="37"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="33"/>
-      <c r="C90" s="29" t="s">
+      <c r="B90" s="40"/>
+      <c r="C90" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F90" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H90" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="I90" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="J90" s="17"/>
-      <c r="K90" s="27"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="37"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="27"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="37"/>
     </row>
     <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="33"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="27"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="37"/>
     </row>
     <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="33"/>
-      <c r="C93" s="29" t="s">
+      <c r="B93" s="40"/>
+      <c r="C93" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F93" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="H93" s="29" t="s">
+      <c r="H93" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="I93" s="29" t="s">
+      <c r="I93" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="J93" s="17"/>
-      <c r="K93" s="27"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="37"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="33"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="27"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="37"/>
     </row>
     <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="34"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="28"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="32">
+      <c r="B96" s="39">
         <v>2016</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="F96" s="29" t="s">
+      <c r="F96" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="H96" s="29" t="s">
+      <c r="H96" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="I96" s="29" t="s">
+      <c r="I96" s="33" t="s">
         <v>640</v>
       </c>
-      <c r="J96" s="17"/>
-      <c r="K96" s="26"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="33"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="27"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="37"/>
     </row>
     <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="33"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="27"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="37"/>
     </row>
     <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="33"/>
-      <c r="C99" s="29" t="s">
+      <c r="B99" s="40"/>
+      <c r="C99" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="H99" s="29" t="s">
+      <c r="H99" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="I99" s="29" t="s">
+      <c r="I99" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="J99" s="17"/>
-      <c r="K99" s="27"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="37"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="33"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="27"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="37"/>
     </row>
     <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="33"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="27"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="37"/>
     </row>
     <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="33"/>
-      <c r="C102" s="29" t="s">
+      <c r="B102" s="40"/>
+      <c r="C102" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E102" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="F102" s="29" t="s">
+      <c r="F102" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="H102" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="I102" s="29" t="s">
+      <c r="I102" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="J102" s="17"/>
-      <c r="K102" s="27"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="37"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="33"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="27"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="37"/>
     </row>
     <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="27"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="37"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="29" t="s">
+      <c r="B105" s="40"/>
+      <c r="C105" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="D105" s="29" t="s">
+      <c r="D105" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F105" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="I105" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="J105" s="17"/>
-      <c r="K105" s="27"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="37"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="33"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="27"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="37"/>
     </row>
     <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="27"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="37"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="33"/>
-      <c r="C108" s="29" t="s">
+      <c r="B108" s="40"/>
+      <c r="C108" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="33" t="s">
         <v>660</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="H108" s="29" t="s">
+      <c r="H108" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="I108" s="29" t="s">
+      <c r="I108" s="33" t="s">
         <v>662</v>
       </c>
-      <c r="J108" s="17"/>
-      <c r="K108" s="27"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="37"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="33"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="27"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="37"/>
     </row>
     <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="33"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="27"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="37"/>
     </row>
     <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="33"/>
-      <c r="C111" s="29" t="s">
+      <c r="B111" s="40"/>
+      <c r="C111" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D111" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="F111" s="29" t="s">
+      <c r="F111" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="G111" s="29" t="s">
+      <c r="G111" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H111" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="I111" s="29" t="s">
+      <c r="I111" s="33" t="s">
         <v>668</v>
       </c>
-      <c r="J111" s="17"/>
-      <c r="K111" s="27"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="37"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="27"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="37"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="34"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="28"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -7184,6 +6962,263 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7719,302 +7754,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2021</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>2020</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>2019</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>2018</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>2017</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>2016</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>2015</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="14">
         <v>2014</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>2013</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="14">
         <v>2012</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8043,7 +8078,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="46">
         <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8054,19 +8089,19 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="1" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>706</v>
       </c>
@@ -8080,7 +8115,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="45">
         <v>2020</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8090,7 +8125,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="2" t="s">
         <v>700</v>
       </c>
@@ -8098,7 +8133,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2" t="s">
         <v>701</v>
       </c>
@@ -8106,7 +8141,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="2" t="s">
         <v>702</v>
       </c>
@@ -8120,7 +8155,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="47">
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -8132,7 +8167,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
@@ -8142,7 +8177,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
@@ -8152,7 +8187,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
@@ -8170,7 +8205,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="A17" s="47">
         <v>2018</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -8182,7 +8217,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -8192,7 +8227,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
@@ -8204,7 +8239,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -8222,7 +8257,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="47">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -8234,7 +8269,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -8250,7 +8285,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="47">
         <v>2016</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -8264,7 +8299,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
@@ -8278,7 +8313,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
+      <c r="A28" s="47">
         <v>2015</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8290,7 +8325,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -8300,7 +8335,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
@@ -8312,7 +8347,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
@@ -8328,7 +8363,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
+      <c r="A33" s="47">
         <v>2014</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -8338,7 +8373,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
@@ -8346,7 +8381,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
@@ -8360,7 +8395,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
+      <c r="A37" s="47">
         <v>2013</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -8372,7 +8407,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
@@ -8382,7 +8417,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
@@ -8398,7 +8433,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
+      <c r="A41" s="47">
         <v>2012</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -8408,7 +8443,7 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
@@ -8418,7 +8453,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
@@ -8844,207 +8879,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="8.88671875" style="24"/>
     <col min="2" max="2" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>6</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>7</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>8</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="21" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="23">
         <v>10</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="21" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>11</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="21" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="23">
         <v>12</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="21" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>13</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="21" t="s">
         <v>695</v>
       </c>
     </row>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BB2AFF-240B-43ED-A1B0-E4CFB55FA261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE4313-D26A-4C78-B569-72F68D059ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="699" activeTab="1" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="775">
   <si>
     <t>数据驱动的城市轨道交通网络优化策略</t>
   </si>
@@ -1079,9 +1079,6 @@
   </si>
   <si>
     <t>2020年</t>
-  </si>
-  <si>
-    <t>A 题： 炉温曲线</t>
   </si>
   <si>
     <t>B 题： 穿越沙漠</t>
@@ -2468,6 +2465,34 @@
   </si>
   <si>
     <t>美国总统候选人对美国和中国的经济影响分析</t>
+  </si>
+  <si>
+    <t>A 题： 炉温曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 题：FAST ”主动反射面的形状调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题：乙醇偶合制备C4烯烃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 题：生产企业原材料的订购与运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D 题：连 铸 切割的 在线优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E 题：中药材的鉴别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2852,14 +2877,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2869,6 +2888,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2896,9 +2924,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3524,7 +3549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F0A86-47AF-44BB-BF68-19660EB181D7}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3540,17 +3565,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3560,17 +3585,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -3579,18 +3604,18 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>453</v>
+      <c r="A12" s="33" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3600,12 +3625,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3615,12 +3640,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -3630,16 +3655,16 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>766</v>
-      </c>
-    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
@@ -3647,13 +3672,13 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="33" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -3692,10 +3717,10 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>723</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3710,10 +3735,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -3722,10 +3747,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -3734,10 +3759,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3764,10 +3789,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -3776,10 +3801,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -3788,10 +3813,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -3818,7 +3843,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -3828,7 +3853,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3838,7 +3863,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -3883,14 +3908,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3909,42 +3934,42 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -3963,28 +3988,28 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -3999,7 +4024,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4012,12 +4037,12 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4030,7 +4055,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -4061,21 +4086,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4094,21 +4119,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4127,21 +4152,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4160,21 +4185,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4193,21 +4218,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4226,21 +4251,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4259,21 +4284,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4292,21 +4317,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4334,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CF2AA-8C2B-432D-9350-2C8F7C538763}">
-  <dimension ref="A1:A163"/>
+  <dimension ref="A1:A170"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4507,7 +4532,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -4987,27 +5012,57 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>343</v>
+        <v>768</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -5038,1906 +5093,2163 @@
     <row r="1" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>469</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>470</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="B3" s="40">
         <v>2006</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="41"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="H9" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="40">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
-        <v>2007</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="F12" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G12" s="33" t="s">
+      <c r="H12" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="I12" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>495</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="E15" s="37" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="F15" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="H15" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="H15" s="33" t="s">
+      <c r="I15" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="41"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-      <c r="C18" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="G18" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="H18" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="I18" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="42"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="40">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="39">
-        <v>2008</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D21" s="33" t="s">
+      <c r="E21" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="F21" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="H21" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="41"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="41"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="41"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="41"/>
+      <c r="C27" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="G27" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>507</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
-      <c r="C24" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="F27" s="33" t="s">
+      <c r="H27" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="H27" s="33" t="s">
+      <c r="I27" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="J27" s="16"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="42"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="40">
+        <v>2009</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="38"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="39">
-        <v>2009</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D30" s="33" t="s">
+      <c r="E30" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G30" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G30" s="33" t="s">
+      <c r="H30" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="I30" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="J30" s="16"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="41"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="41"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="41"/>
+      <c r="C33" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D33" s="33" t="s">
+      <c r="E33" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="F33" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="G33" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="H33" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="I33" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="J33" s="16"/>
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="41"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="35"/>
+    </row>
+    <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="35"/>
+    </row>
+    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="41"/>
+      <c r="C36" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D36" s="33" t="s">
+      <c r="E36" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="F36" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G36" s="37" t="s">
         <v>533</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G36" s="33" t="s">
+      <c r="H36" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="I36" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="J36" s="16"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="35"/>
+    </row>
+    <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="42"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="40">
+        <v>2010</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="38"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="39">
-        <v>2010</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D39" s="33" t="s">
+      <c r="E39" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="F39" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="G39" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="H39" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="I39" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="J39" s="16"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="41"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="41"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="41"/>
+      <c r="C42" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="37"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
-      <c r="C42" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D42" s="33" t="s">
+      <c r="E42" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="F42" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="G42" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="G42" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="H42" s="33" t="s">
+      <c r="I42" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="J42" s="16"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="41"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="41"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="41"/>
+      <c r="C45" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D45" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="40"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="40"/>
-      <c r="C45" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D45" s="33" t="s">
+      <c r="E45" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="F45" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="G45" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="H45" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="I45" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="J45" s="16"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="41"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="35"/>
+    </row>
+    <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="42"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="40">
+        <v>2011</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D48" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="40"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="38"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="39">
-        <v>2011</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D48" s="33" t="s">
+      <c r="E48" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="F48" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="H48" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H48" s="33" t="s">
+      <c r="I48" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="I48" s="33" t="s">
+      <c r="J48" s="16"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="41"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="35"/>
+    </row>
+    <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="41"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="35"/>
+    </row>
+    <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="41"/>
+      <c r="C51" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="36"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="37"/>
-    </row>
-    <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="37"/>
-    </row>
-    <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
-      <c r="C51" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D51" s="33" t="s">
+      <c r="E51" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="F51" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G51" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="F51" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G51" s="33" t="s">
+      <c r="H51" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="I51" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="I51" s="33" t="s">
+      <c r="J51" s="16"/>
+      <c r="K51" s="35"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="41"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="35"/>
+    </row>
+    <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="41"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="41"/>
+      <c r="C54" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="37"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="37"/>
-    </row>
-    <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="37"/>
-    </row>
-    <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D54" s="33" t="s">
+      <c r="E54" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="F54" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="G54" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="H54" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="41"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="42"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="36"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="40">
+        <v>2012</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="34"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="41"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="35"/>
+    </row>
+    <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="41"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="35"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="41"/>
+      <c r="C60" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="35"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="41"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="35"/>
+    </row>
+    <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="41"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="35"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="41"/>
+      <c r="C63" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="35"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="41"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="35"/>
+    </row>
+    <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="36"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="40">
+        <v>2013</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="34"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="41"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="35"/>
+    </row>
+    <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="41"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="35"/>
+    </row>
+    <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="41"/>
+      <c r="C69" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="35"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="41"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="35"/>
+    </row>
+    <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="41"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="35"/>
+    </row>
+    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="41"/>
+      <c r="C72" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="J72" s="16"/>
+      <c r="K72" s="35"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="41"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="35"/>
+    </row>
+    <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="42"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="36"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="40">
+        <v>2014</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="G75" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="I75" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="J75" s="16"/>
+      <c r="K75" s="34"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="41"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="35"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="41"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="35"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="41"/>
+      <c r="C78" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="G78" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="H78" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="I78" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="35"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="41"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="35"/>
+    </row>
+    <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="41"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="35"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="41"/>
+      <c r="C81" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="G81" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="H81" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="J81" s="16"/>
+      <c r="K81" s="35"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="41"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="35"/>
+    </row>
+    <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="42"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="36"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="40">
+        <v>2015</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G84" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="G54" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="37"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="40"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="38"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="39">
-        <v>2012</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="H57" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="36"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="40"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="37"/>
-    </row>
-    <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="37"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>575</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="H60" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="37"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="40"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="37"/>
-    </row>
-    <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="37"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="40"/>
-      <c r="C63" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="37"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="37"/>
-    </row>
-    <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="38"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="39">
-        <v>2013</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="36"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="40"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="37"/>
-    </row>
-    <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="37"/>
-    </row>
-    <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="40"/>
-      <c r="C69" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="E69" s="33" t="s">
+      <c r="H84" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="I84" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="J84" s="16"/>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="41"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="35"/>
+    </row>
+    <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="41"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="35"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="41"/>
+      <c r="C87" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="E87" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G87" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="H87" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="I87" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="35"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="41"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="35"/>
+    </row>
+    <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="41"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="35"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="41"/>
+      <c r="C90" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="F90" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="G90" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="H90" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="I90" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="35"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="41"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="35"/>
+    </row>
+    <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="41"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="35"/>
+    </row>
+    <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="41"/>
+      <c r="C93" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="E93" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="G93" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="H93" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="I93" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="J93" s="16"/>
+      <c r="K93" s="35"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="41"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="35"/>
+    </row>
+    <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="42"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="36"/>
+    </row>
+    <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="40">
+        <v>2016</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G96" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="H96" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="I96" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="J96" s="16"/>
+      <c r="K96" s="34"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="41"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="35"/>
+    </row>
+    <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="41"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="35"/>
+    </row>
+    <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="41"/>
+      <c r="C99" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="E99" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="F99" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G99" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="H99" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="I99" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="J99" s="16"/>
+      <c r="K99" s="35"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="41"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="41"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="35"/>
+    </row>
+    <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="41"/>
+      <c r="C102" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="G102" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="H102" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="I102" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="J102" s="16"/>
+      <c r="K102" s="35"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="41"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="35"/>
+    </row>
+    <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="41"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="35"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="41"/>
+      <c r="C105" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="F105" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="G105" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="H105" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="I105" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="J105" s="16"/>
+      <c r="K105" s="35"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="41"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="35"/>
+    </row>
+    <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="41"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="35"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="41"/>
+      <c r="C108" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="D108" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="E108" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="F108" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="G108" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="F69" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="H69" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="J69" s="16"/>
-      <c r="K69" s="37"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="40"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="37"/>
-    </row>
-    <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="37"/>
-    </row>
-    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="40"/>
-      <c r="C72" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="G72" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="H72" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="37"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="40"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="37"/>
-    </row>
-    <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="38"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="39">
-        <v>2014</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="G75" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="H75" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="I75" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="J75" s="16"/>
-      <c r="K75" s="36"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="40"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="37"/>
-    </row>
-    <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="37"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="40"/>
-      <c r="C78" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="H78" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="I78" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="J78" s="16"/>
-      <c r="K78" s="37"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="40"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="37"/>
-    </row>
-    <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="40"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="37"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="40"/>
-      <c r="C81" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="G81" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="H81" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="J81" s="16"/>
-      <c r="K81" s="37"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="40"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="37"/>
-    </row>
-    <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="41"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="38"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="39">
-        <v>2015</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G84" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="H84" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="I84" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="J84" s="16"/>
-      <c r="K84" s="36"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="40"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="37"/>
-    </row>
-    <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="37"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="40"/>
-      <c r="C87" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="H87" s="33" t="s">
-        <v>622</v>
-      </c>
-      <c r="I87" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="J87" s="16"/>
-      <c r="K87" s="37"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="40"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="37"/>
-    </row>
-    <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="37"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="40"/>
-      <c r="C90" s="33" t="s">
-        <v>624</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="H90" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="I90" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="37"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="40"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="37"/>
-    </row>
-    <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="37"/>
-    </row>
-    <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="40"/>
-      <c r="C93" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="H93" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="I93" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="J93" s="16"/>
-      <c r="K93" s="37"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="40"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="37"/>
-    </row>
-    <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="41"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="38"/>
-    </row>
-    <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="39">
-        <v>2016</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="F96" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G96" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="H96" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="I96" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="J96" s="16"/>
-      <c r="K96" s="36"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="40"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="37"/>
-    </row>
-    <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="40"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="37"/>
-    </row>
-    <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="40"/>
-      <c r="C99" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="G99" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="H99" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="I99" s="33" t="s">
-        <v>645</v>
-      </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="37"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="40"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="37"/>
-    </row>
-    <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="40"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="37"/>
-    </row>
-    <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="40"/>
-      <c r="C102" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="G102" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="H102" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="J102" s="16"/>
-      <c r="K102" s="37"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="40"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="37"/>
-    </row>
-    <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="40"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="37"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="40"/>
-      <c r="C105" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="F105" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="G105" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="H105" s="33" t="s">
-        <v>655</v>
-      </c>
-      <c r="I105" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="J105" s="16"/>
-      <c r="K105" s="37"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="40"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="37"/>
-    </row>
-    <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="40"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="37"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="40"/>
-      <c r="C108" s="33" t="s">
-        <v>657</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="F108" s="33" t="s">
+      <c r="H108" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="G108" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="H108" s="33" t="s">
+      <c r="I108" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="I108" s="33" t="s">
+      <c r="J108" s="16"/>
+      <c r="K108" s="35"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="41"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="35"/>
+    </row>
+    <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="41"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="35"/>
+    </row>
+    <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="41"/>
+      <c r="C111" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="J108" s="16"/>
-      <c r="K108" s="37"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="40"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="37"/>
-    </row>
-    <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="40"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="37"/>
-    </row>
-    <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="40"/>
-      <c r="C111" s="33" t="s">
+      <c r="D111" s="37" t="s">
         <v>663</v>
       </c>
-      <c r="D111" s="33" t="s">
+      <c r="E111" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="E111" s="33" t="s">
+      <c r="F111" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G111" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="F111" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="G111" s="33" t="s">
+      <c r="H111" s="37" t="s">
         <v>666</v>
       </c>
-      <c r="H111" s="33" t="s">
+      <c r="I111" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="I111" s="33" t="s">
-        <v>668</v>
-      </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="37"/>
+      <c r="K111" s="35"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="40"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="38"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="37"/>
+      <c r="K112" s="35"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="41"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="38"/>
+      <c r="K113" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -6962,263 +7274,6 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7245,7 +7300,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -7495,7 +7550,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -7670,7 +7725,7 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -7762,25 +7817,25 @@
         <v>2021</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7792,25 +7847,25 @@
         <v>2020</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7822,25 +7877,25 @@
         <v>2019</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,25 +7907,25 @@
         <v>2018</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7882,25 +7937,25 @@
         <v>2017</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7912,25 +7967,25 @@
         <v>2016</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7942,25 +7997,25 @@
         <v>2015</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7972,25 +8027,25 @@
         <v>2014</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8002,25 +8057,25 @@
         <v>2013</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8032,25 +8087,25 @@
         <v>2012</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -8078,32 +8133,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="47">
         <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="2" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8115,35 +8170,35 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="46">
         <v>2020</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -8155,7 +8210,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="A12" s="48">
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -8167,7 +8222,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
@@ -8177,7 +8232,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
@@ -8187,7 +8242,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
@@ -8205,7 +8260,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="A17" s="48">
         <v>2018</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -8217,7 +8272,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -8227,7 +8282,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
@@ -8239,7 +8294,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -8257,7 +8312,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="A22" s="48">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -8269,7 +8324,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -8285,7 +8340,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+      <c r="A25" s="48">
         <v>2016</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -8299,7 +8354,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
@@ -8313,7 +8368,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
+      <c r="A28" s="48">
         <v>2015</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8325,7 +8380,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -8335,7 +8390,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
@@ -8347,7 +8402,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
@@ -8363,7 +8418,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
+      <c r="A33" s="48">
         <v>2014</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -8373,7 +8428,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
@@ -8381,7 +8436,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
@@ -8395,7 +8450,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="47">
+      <c r="A37" s="48">
         <v>2013</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -8407,7 +8462,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
@@ -8417,7 +8472,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
@@ -8433,7 +8488,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="47">
+      <c r="A41" s="48">
         <v>2012</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -8443,7 +8498,7 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
@@ -8453,7 +8508,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
@@ -8499,22 +8554,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -8524,22 +8579,22 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -8549,17 +8604,17 @@
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -8569,17 +8624,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -8589,17 +8644,17 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -8609,17 +8664,17 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -8629,17 +8684,17 @@
     </row>
     <row r="55" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -8649,17 +8704,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -8669,17 +8724,17 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -8689,17 +8744,17 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -8709,17 +8764,17 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -8729,17 +8784,17 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -8749,17 +8804,17 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -8769,17 +8824,17 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -8789,17 +8844,17 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -8809,17 +8864,17 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -8829,17 +8884,17 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -8849,17 +8904,17 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -8888,13 +8943,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8906,19 +8961,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8930,13 +8985,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8948,13 +9003,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8966,13 +9021,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8984,13 +9039,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9002,13 +9057,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9020,13 +9075,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9038,13 +9093,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9056,13 +9111,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9074,13 +9129,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -9109,17 +9164,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -9132,17 +9187,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -9155,17 +9210,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE4313-D26A-4C78-B569-72F68D059ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C106F24-0EED-41CD-BB75-8FAC7DE1E437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="699" activeTab="1" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" activeTab="14" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="数维杯" sheetId="12" r:id="rId12"/>
     <sheet name="东三省" sheetId="13" r:id="rId13"/>
     <sheet name="华东杯" sheetId="14" r:id="rId14"/>
+    <sheet name="认证杯" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="831">
   <si>
     <t>数据驱动的城市轨道交通网络优化策略</t>
   </si>
@@ -2493,6 +2494,200 @@
   <si>
     <t>2021年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A题 自适应温控系统</t>
+  </si>
+  <si>
+    <t>B题 对城市公交线路网络效率的评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C题 沙尘暴与各项气象指标的关系分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D题 飞机对战游戏</t>
+  </si>
+  <si>
+    <t>E题 可乐杯大小的设计和定价</t>
+  </si>
+  <si>
+    <t>F题 自行车租赁策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G题 汽车销售服务问题</t>
+  </si>
+  <si>
+    <t>A 题：串行算法的并行化处理</t>
+  </si>
+  <si>
+    <t>B 题：流感疫苗</t>
+  </si>
+  <si>
+    <t>C 题：2030“完美风暴”</t>
+  </si>
+  <si>
+    <t>D 题(中学组专用)：大奖评奖方法的讨论</t>
+  </si>
+  <si>
+    <t>A 题：聪明的汽车</t>
+  </si>
+  <si>
+    <t>B 题：Braess 悖论</t>
+  </si>
+  <si>
+    <t>C 题：高校图书馆的智能服务</t>
+  </si>
+  <si>
+    <t>D 题(中学和专科组可选)：服务网点的分布</t>
+  </si>
+  <si>
+    <t>A 题：客机水面迫降时的姿态</t>
+  </si>
+  <si>
+    <t>C 题：你的爱车入保险了吗？</t>
+  </si>
+  <si>
+    <t>B 题：生物多样性的评估</t>
+  </si>
+  <si>
+    <t>D 题：保险产品的设计方案</t>
+  </si>
+  <si>
+    <t>A 题：蜘蛛网，蛛网结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题：白屋顶计划降低城市热岛效应起到的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 题：碎片化趋势下的奥运会商业模式</t>
+  </si>
+  <si>
+    <t>D 题：人机游戏中的数学模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 题护岸框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题流行音乐发展简史，对流行音乐的风格给出一个自然、合理的分类方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 题公路运输业对于国内生产总值的影响分析</t>
+  </si>
+  <si>
+    <t>D 题杨阿姨的困惑</t>
+  </si>
+  <si>
+    <t>A 题轮胎的花纹</t>
+  </si>
+  <si>
+    <t>B 题位图的处理算法</t>
+  </si>
+  <si>
+    <t>C 题土地储备方案的风险评估</t>
+  </si>
+  <si>
+    <t>D 题幼儿园园长的苦恼</t>
+  </si>
+  <si>
+    <t>备注：D题为专科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 题绳结，自动松脱、机械性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题替换式密码</t>
+  </si>
+  <si>
+    <t>C 题荒漠区动植物关系的研究</t>
+  </si>
+  <si>
+    <t>D 题城市公共自行车</t>
+  </si>
+  <si>
+    <t>A 题洗衣机，洗衣机的净衣效能和对衣物的损伤程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题低分辨率下看世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 题如何有效的抑制校园霸凌事件的发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D 题NBA 是否有必要设立四分线？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 题安全的后视镜，镜面的曲面外形、边缘轮廓、尺寸以及安装位置等参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题岁月的印记，通过一个人在较大年龄时的照片来还原其年轻时的
+容貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 题移动端考研产品的春天真的到来了吗？</t>
+  </si>
+  <si>
+    <t>D 题教室的合理设计</t>
+  </si>
+  <si>
+    <t>A 题海豚与沙丁鱼，多条海豚配合捕食时应当采取怎样的合作策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题动态模糊图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 题机械零件加工过程中的位置识别</t>
+  </si>
+  <si>
+    <t>D 题投篮的最佳出手点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 题好风凭借力，送我上青云，，计算投
+掷出手的合理角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题外星语词典</t>
+  </si>
+  <si>
+    <t>C 题保险业的数字化变革</t>
+  </si>
+  <si>
+    <t>D 题5G 时代引发的道路规划革命</t>
+  </si>
+  <si>
+    <t>A 题听音辨位，对接收
+到的声音信号进行分析的算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 题分布式无线广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 题抗击疫情，我们能做什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D 题让电脑桌面飞起来</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +2972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2880,6 +3075,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2888,15 +3092,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2924,6 +3119,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4357,11 +4555,374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF2496-2DB7-40B3-878F-DAA954FC589B}">
+  <dimension ref="A1:B80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.6640625" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="49">
+        <v>2008</v>
+      </c>
+      <c r="B1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="49" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="49">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="49" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="49">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="49" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="49" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="49">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="49" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="49" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="49" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="49">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="49" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="49" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="49" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="49" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="49">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="49" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="49" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="49" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="49">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="49" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CF2AA-8C2B-432D-9350-2C8F7C538763}">
   <dimension ref="A1:A170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
@@ -5123,2133 +5684,1876 @@
       <c r="B3" s="40">
         <v>2006</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="34" t="s">
         <v>476</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="34"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="35"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="35"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="41"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="34" t="s">
         <v>482</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="35"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="41"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="41"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="34" t="s">
         <v>489</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="41"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="42"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="36"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="40">
         <v>2007</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="34" t="s">
         <v>494</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="34"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="35"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="34" t="s">
         <v>497</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>498</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="44"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="35"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="41"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="45"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="34" t="s">
         <v>503</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="35"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="35"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="42"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="36"/>
+      <c r="K20" s="39"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="40">
         <v>2008</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="34" t="s">
         <v>508</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="34"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="35"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="41"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="34" t="s">
         <v>514</v>
       </c>
       <c r="J24" s="16"/>
-      <c r="K24" s="35"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="41"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="35"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="35"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="34" t="s">
         <v>519</v>
       </c>
       <c r="J27" s="16"/>
-      <c r="K27" s="35"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="41"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="35"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="42"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="39"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="40">
         <v>2009</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="34" t="s">
         <v>521</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="34" t="s">
         <v>524</v>
       </c>
       <c r="J30" s="16"/>
-      <c r="K30" s="34"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="41"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="35"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="41"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="35"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="34" t="s">
         <v>525</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="34" t="s">
         <v>530</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="35"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="41"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="35"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="41"/>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="34" t="s">
         <v>535</v>
       </c>
       <c r="J36" s="16"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="35"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="42"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="36"/>
+      <c r="K38" s="39"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="40">
         <v>2010</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="34" t="s">
         <v>541</v>
       </c>
       <c r="J39" s="16"/>
-      <c r="K39" s="34"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="35"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="41"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="35"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="41"/>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="34" t="s">
         <v>543</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="I42" s="37" t="s">
+      <c r="I42" s="34" t="s">
         <v>546</v>
       </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="35"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="35"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="41"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="35"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="41"/>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="34" t="s">
         <v>552</v>
       </c>
       <c r="J45" s="16"/>
-      <c r="K45" s="35"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="41"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="42"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="36"/>
+      <c r="K47" s="39"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="40">
         <v>2011</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="I48" s="37" t="s">
+      <c r="I48" s="34" t="s">
         <v>556</v>
       </c>
       <c r="J48" s="16"/>
-      <c r="K48" s="34"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="41"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="41"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="41"/>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="I51" s="37" t="s">
+      <c r="I51" s="34" t="s">
         <v>561</v>
       </c>
       <c r="J51" s="16"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="41"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="35"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="35"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="41"/>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="I54" s="37" t="s">
+      <c r="I54" s="34" t="s">
         <v>566</v>
       </c>
       <c r="J54" s="16"/>
-      <c r="K54" s="35"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="41"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="35"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="42"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="36"/>
+      <c r="K56" s="39"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="40">
         <v>2012</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="I57" s="37" t="s">
+      <c r="I57" s="34" t="s">
         <v>572</v>
       </c>
       <c r="J57" s="16"/>
-      <c r="K57" s="34"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="41"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="35"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="41"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="35"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="41"/>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="F60" s="37" t="s">
+      <c r="F60" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="I60" s="37" t="s">
+      <c r="I60" s="34" t="s">
         <v>577</v>
       </c>
       <c r="J60" s="16"/>
-      <c r="K60" s="35"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="41"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="35"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="41"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="35"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="41"/>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="34" t="s">
         <v>580</v>
       </c>
-      <c r="I63" s="37" t="s">
+      <c r="I63" s="34" t="s">
         <v>581</v>
       </c>
       <c r="J63" s="16"/>
-      <c r="K63" s="35"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="41"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="35"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="42"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="36"/>
+      <c r="K65" s="39"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="40">
         <v>2013</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="E66" s="37" t="s">
+      <c r="E66" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="F66" s="37" t="s">
+      <c r="F66" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="H66" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="I66" s="37" t="s">
+      <c r="I66" s="34" t="s">
         <v>586</v>
       </c>
       <c r="J66" s="16"/>
-      <c r="K66" s="34"/>
+      <c r="K66" s="37"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="41"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="35"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="41"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="35"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="41"/>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="F69" s="37" t="s">
+      <c r="F69" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="H69" s="37" t="s">
+      <c r="H69" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="I69" s="37" t="s">
+      <c r="I69" s="34" t="s">
         <v>591</v>
       </c>
       <c r="J69" s="16"/>
-      <c r="K69" s="35"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="41"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="35"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="41"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="35"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="41"/>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F72" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="G72" s="37" t="s">
+      <c r="G72" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="34" t="s">
         <v>595</v>
       </c>
-      <c r="I72" s="37" t="s">
+      <c r="I72" s="34" t="s">
         <v>596</v>
       </c>
       <c r="J72" s="16"/>
-      <c r="K72" s="35"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="41"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="35"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="42"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="36"/>
+      <c r="K74" s="39"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="40">
         <v>2014</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="34" t="s">
         <v>597</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="34" t="s">
         <v>598</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="34" t="s">
         <v>599</v>
       </c>
-      <c r="G75" s="37" t="s">
+      <c r="G75" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="H75" s="37" t="s">
+      <c r="H75" s="34" t="s">
         <v>601</v>
       </c>
-      <c r="I75" s="37" t="s">
+      <c r="I75" s="34" t="s">
         <v>602</v>
       </c>
       <c r="J75" s="16"/>
-      <c r="K75" s="34"/>
+      <c r="K75" s="37"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="41"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="35"/>
+      <c r="K76" s="38"/>
     </row>
     <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="41"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="35"/>
+      <c r="K77" s="38"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="41"/>
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="34" t="s">
         <v>603</v>
       </c>
-      <c r="E78" s="37" t="s">
+      <c r="E78" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="F78" s="37" t="s">
+      <c r="F78" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="34" t="s">
         <v>606</v>
       </c>
-      <c r="H78" s="37" t="s">
+      <c r="H78" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="I78" s="37" t="s">
+      <c r="I78" s="34" t="s">
         <v>608</v>
       </c>
       <c r="J78" s="16"/>
-      <c r="K78" s="35"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="41"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="35"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="41"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="35"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="41"/>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="E81" s="37" t="s">
+      <c r="E81" s="34" t="s">
         <v>610</v>
       </c>
-      <c r="F81" s="37" t="s">
+      <c r="F81" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="H81" s="37" t="s">
+      <c r="H81" s="34" t="s">
         <v>612</v>
       </c>
-      <c r="I81" s="37" t="s">
+      <c r="I81" s="34" t="s">
         <v>613</v>
       </c>
       <c r="J81" s="16"/>
-      <c r="K81" s="35"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="41"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="35"/>
+      <c r="K82" s="38"/>
     </row>
     <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="42"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="36"/>
+      <c r="K83" s="39"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="40">
         <v>2015</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="34" t="s">
         <v>614</v>
       </c>
-      <c r="E84" s="37" t="s">
+      <c r="E84" s="34" t="s">
         <v>615</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="H84" s="37" t="s">
+      <c r="H84" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="I84" s="37" t="s">
+      <c r="I84" s="34" t="s">
         <v>617</v>
       </c>
       <c r="J84" s="16"/>
-      <c r="K84" s="34"/>
+      <c r="K84" s="37"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="41"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="35"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="41"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
       <c r="J86" s="18"/>
-      <c r="K86" s="35"/>
+      <c r="K86" s="38"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="41"/>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D87" s="37" t="s">
+      <c r="D87" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="H87" s="37" t="s">
+      <c r="H87" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="I87" s="37" t="s">
+      <c r="I87" s="34" t="s">
         <v>622</v>
       </c>
       <c r="J87" s="16"/>
-      <c r="K87" s="35"/>
+      <c r="K87" s="38"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="41"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="35"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="41"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
       <c r="J89" s="18"/>
-      <c r="K89" s="35"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="41"/>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="D90" s="37" t="s">
+      <c r="D90" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="F90" s="37" t="s">
+      <c r="F90" s="34" t="s">
         <v>626</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="34" t="s">
         <v>627</v>
       </c>
-      <c r="H90" s="37" t="s">
+      <c r="H90" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="I90" s="37" t="s">
+      <c r="I90" s="34" t="s">
         <v>629</v>
       </c>
       <c r="J90" s="16"/>
-      <c r="K90" s="35"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="41"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="35"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="41"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="35"/>
+      <c r="K92" s="38"/>
     </row>
     <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="41"/>
-      <c r="C93" s="37" t="s">
+      <c r="C93" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D93" s="34" t="s">
         <v>631</v>
       </c>
-      <c r="E93" s="37" t="s">
+      <c r="E93" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="F93" s="37" t="s">
+      <c r="F93" s="34" t="s">
         <v>626</v>
       </c>
-      <c r="G93" s="37" t="s">
+      <c r="G93" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="H93" s="37" t="s">
+      <c r="H93" s="34" t="s">
         <v>633</v>
       </c>
-      <c r="I93" s="37" t="s">
+      <c r="I93" s="34" t="s">
         <v>634</v>
       </c>
       <c r="J93" s="16"/>
-      <c r="K93" s="35"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="41"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="35"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="42"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
       <c r="J95" s="18"/>
-      <c r="K95" s="36"/>
+      <c r="K95" s="39"/>
     </row>
     <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="40">
         <v>2016</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D96" s="37" t="s">
+      <c r="D96" s="34" t="s">
         <v>635</v>
       </c>
-      <c r="E96" s="37" t="s">
+      <c r="E96" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="F96" s="37" t="s">
+      <c r="F96" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G96" s="37" t="s">
+      <c r="G96" s="34" t="s">
         <v>637</v>
       </c>
-      <c r="H96" s="37" t="s">
+      <c r="H96" s="34" t="s">
         <v>638</v>
       </c>
-      <c r="I96" s="37" t="s">
+      <c r="I96" s="34" t="s">
         <v>639</v>
       </c>
       <c r="J96" s="16"/>
-      <c r="K96" s="34"/>
+      <c r="K96" s="37"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="41"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="35"/>
+      <c r="K97" s="38"/>
     </row>
     <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="41"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
       <c r="J98" s="18"/>
-      <c r="K98" s="35"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="41"/>
-      <c r="C99" s="37" t="s">
+      <c r="C99" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D99" s="37" t="s">
+      <c r="D99" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="E99" s="37" t="s">
+      <c r="E99" s="34" t="s">
         <v>641</v>
       </c>
-      <c r="F99" s="37" t="s">
+      <c r="F99" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="G99" s="37" t="s">
+      <c r="G99" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="H99" s="37" t="s">
+      <c r="H99" s="34" t="s">
         <v>643</v>
       </c>
-      <c r="I99" s="37" t="s">
+      <c r="I99" s="34" t="s">
         <v>644</v>
       </c>
       <c r="J99" s="16"/>
-      <c r="K99" s="35"/>
+      <c r="K99" s="38"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="41"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="35"/>
+      <c r="K100" s="38"/>
     </row>
     <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="41"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="35"/>
+      <c r="K101" s="38"/>
     </row>
     <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="41"/>
-      <c r="C102" s="37" t="s">
+      <c r="C102" s="34" t="s">
         <v>645</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D102" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E102" s="34" t="s">
         <v>647</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="34" t="s">
         <v>648</v>
       </c>
-      <c r="G102" s="37" t="s">
+      <c r="G102" s="34" t="s">
         <v>649</v>
       </c>
-      <c r="H102" s="37" t="s">
+      <c r="H102" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="I102" s="37" t="s">
+      <c r="I102" s="34" t="s">
         <v>651</v>
       </c>
       <c r="J102" s="16"/>
-      <c r="K102" s="35"/>
+      <c r="K102" s="38"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="41"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
       <c r="J103" s="17"/>
-      <c r="K103" s="35"/>
+      <c r="K103" s="38"/>
     </row>
     <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="41"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
       <c r="J104" s="18"/>
-      <c r="K104" s="35"/>
+      <c r="K104" s="38"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="41"/>
-      <c r="C105" s="37" t="s">
+      <c r="C105" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="D105" s="37" t="s">
+      <c r="D105" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="F105" s="37" t="s">
+      <c r="F105" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="G105" s="37" t="s">
+      <c r="G105" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="H105" s="37" t="s">
+      <c r="H105" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="I105" s="37" t="s">
+      <c r="I105" s="34" t="s">
         <v>655</v>
       </c>
       <c r="J105" s="16"/>
-      <c r="K105" s="35"/>
+      <c r="K105" s="38"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="41"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
       <c r="J106" s="17"/>
-      <c r="K106" s="35"/>
+      <c r="K106" s="38"/>
     </row>
     <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="41"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
       <c r="J107" s="18"/>
-      <c r="K107" s="35"/>
+      <c r="K107" s="38"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="41"/>
-      <c r="C108" s="37" t="s">
+      <c r="C108" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="D108" s="37" t="s">
+      <c r="D108" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="E108" s="37" t="s">
+      <c r="E108" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="F108" s="37" t="s">
+      <c r="F108" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="G108" s="37" t="s">
+      <c r="G108" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="H108" s="37" t="s">
+      <c r="H108" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="I108" s="37" t="s">
+      <c r="I108" s="34" t="s">
         <v>661</v>
       </c>
       <c r="J108" s="16"/>
-      <c r="K108" s="35"/>
+      <c r="K108" s="38"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="41"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
       <c r="J109" s="17"/>
-      <c r="K109" s="35"/>
+      <c r="K109" s="38"/>
     </row>
     <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="41"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
       <c r="J110" s="18"/>
-      <c r="K110" s="35"/>
+      <c r="K110" s="38"/>
     </row>
     <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="41"/>
-      <c r="C111" s="37" t="s">
+      <c r="C111" s="34" t="s">
         <v>662</v>
       </c>
-      <c r="D111" s="37" t="s">
+      <c r="D111" s="34" t="s">
         <v>663</v>
       </c>
-      <c r="E111" s="37" t="s">
+      <c r="E111" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="F111" s="37" t="s">
+      <c r="F111" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="G111" s="37" t="s">
+      <c r="G111" s="34" t="s">
         <v>665</v>
       </c>
-      <c r="H111" s="37" t="s">
+      <c r="H111" s="34" t="s">
         <v>666</v>
       </c>
-      <c r="I111" s="37" t="s">
+      <c r="I111" s="34" t="s">
         <v>667</v>
       </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="35"/>
+      <c r="K111" s="38"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="41"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="35"/>
+      <c r="K112" s="38"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="42"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="36"/>
+      <c r="K113" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -7274,6 +7578,263 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C106F24-0EED-41CD-BB75-8FAC7DE1E437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D719A-D5DA-43AF-B319-7A86BD16BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" activeTab="14" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" activeTab="7" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
@@ -1311,9 +1311,6 @@
   </si>
   <si>
     <t>B题：空气污染问题研究</t>
-  </si>
-  <si>
-    <t>C题：生态文明建设评价问题</t>
   </si>
   <si>
     <t>A题：购房中的数学问题</t>
@@ -2688,6 +2685,22 @@
   </si>
   <si>
     <t>D 题让电脑桌面飞起来</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题：生态文明建设评价问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3075,13 +3088,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3092,6 +3099,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3119,9 +3135,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3763,17 +3776,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3783,17 +3796,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -3803,17 +3816,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3823,12 +3836,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -3838,12 +3851,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -3853,12 +3866,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -3871,12 +3884,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3917,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3915,10 +3928,10 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>722</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3933,10 +3946,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -3945,10 +3958,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -3957,10 +3970,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3987,10 +4000,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -3999,10 +4012,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4011,10 +4024,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -4041,7 +4054,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4051,7 +4064,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -4061,7 +4074,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -4106,14 +4119,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -4132,42 +4145,42 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -4186,28 +4199,28 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -4222,7 +4235,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4235,12 +4248,12 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4253,7 +4266,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -4266,7 +4279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA7F449-CE48-42C9-9248-4802CA3CD6BB}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4284,21 +4297,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4317,21 +4330,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4350,21 +4363,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4383,21 +4396,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4416,21 +4429,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4449,21 +4462,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4482,21 +4495,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4515,21 +4528,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4559,356 +4572,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF2496-2DB7-40B3-878F-DAA954FC589B}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="61.6640625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="49">
+      <c r="A1" s="34">
         <v>2008</v>
       </c>
       <c r="B1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
+    <row r="60" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="34" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="34" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="34" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
         <v>829</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
-        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -5573,7 +5586,7 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
@@ -5598,32 +5611,32 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB69F93-987D-412E-B8E8-8B5BDAF26EF0}">
   <dimension ref="B1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30:F32"/>
     </sheetView>
   </sheetViews>
@@ -5654,1906 +5667,2163 @@
     <row r="1" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>468</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>469</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="40">
+      <c r="B3" s="41">
         <v>2006</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="38"/>
-    </row>
-    <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
-        <v>2007</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G12" s="34" t="s">
+      <c r="H12" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="I12" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="42"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="42"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
+      <c r="C15" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="E15" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="F15" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="H15" s="34" t="s">
+      <c r="I15" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="42"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="42"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42"/>
+      <c r="C18" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="38"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
-      <c r="C18" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="E18" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="F18" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="G18" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="H18" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="42"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="39"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="40">
-        <v>2008</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="E21" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="F21" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="H21" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="42"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="42"/>
+      <c r="C24" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="42"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="42"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="42"/>
+      <c r="C27" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="G27" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>507</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="38"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="38"/>
-    </row>
-    <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>510</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="38"/>
-    </row>
-    <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>515</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="F27" s="34" t="s">
+      <c r="H27" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="H27" s="34" t="s">
+      <c r="I27" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="J27" s="16"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="42"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="43"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="41">
+        <v>2009</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="42"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="39"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="40">
-        <v>2009</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D30" s="34" t="s">
+      <c r="E30" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="F30" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G30" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G30" s="34" t="s">
+      <c r="H30" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="I30" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="J30" s="16"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="42"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="42"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="42"/>
+      <c r="C33" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="38"/>
-    </row>
-    <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="38"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
-      <c r="C33" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D33" s="34" t="s">
+      <c r="E33" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="F33" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="G33" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="H33" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="I33" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="J33" s="16"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="42"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="42"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="42"/>
+      <c r="C36" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="38"/>
-    </row>
-    <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="38"/>
-    </row>
-    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
-      <c r="C36" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D36" s="34" t="s">
+      <c r="E36" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="F36" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G36" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G36" s="34" t="s">
+      <c r="H36" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="I36" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="J36" s="16"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="42"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="43"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="41">
+        <v>2010</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="38"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="38"/>
-    </row>
-    <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="42"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="39"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="40">
-        <v>2010</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="34" t="s">
+      <c r="E39" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="F39" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="G39" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="H39" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="H39" s="34" t="s">
+      <c r="I39" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="J39" s="16"/>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="42"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="42"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="42"/>
+      <c r="C42" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="38"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="38"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="41"/>
-      <c r="C42" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D42" s="34" t="s">
+      <c r="E42" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="F42" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="G42" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="H42" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="G42" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="H42" s="34" t="s">
+      <c r="I42" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="J42" s="16"/>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="42"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="42"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="42"/>
+      <c r="C45" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D45" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="38"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="38"/>
-    </row>
-    <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="38"/>
-    </row>
-    <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
-      <c r="C45" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D45" s="34" t="s">
+      <c r="E45" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="F45" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="G45" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="H45" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="I45" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="I45" s="34" t="s">
+      <c r="J45" s="16"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="42"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="43"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="37"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="41">
+        <v>2011</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D48" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="38"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="38"/>
-    </row>
-    <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="42"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="39"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="40">
-        <v>2011</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D48" s="34" t="s">
+      <c r="E48" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="F48" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="H48" s="38" t="s">
         <v>554</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="H48" s="34" t="s">
+      <c r="I48" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="J48" s="16"/>
+      <c r="K48" s="35"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="42"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="42"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="36"/>
+    </row>
+    <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="42"/>
+      <c r="C51" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="38"/>
-    </row>
-    <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="41"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="38"/>
-    </row>
-    <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
-      <c r="C51" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D51" s="34" t="s">
+      <c r="E51" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="F51" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G51" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="F51" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G51" s="34" t="s">
+      <c r="H51" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="I51" s="38" t="s">
         <v>560</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="J51" s="16"/>
+      <c r="K51" s="36"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="42"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="36"/>
+    </row>
+    <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="42"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="36"/>
+    </row>
+    <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="42"/>
+      <c r="C54" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D54" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="38"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="38"/>
-    </row>
-    <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="38"/>
-    </row>
-    <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
-      <c r="C54" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D54" s="34" t="s">
+      <c r="E54" s="38" t="s">
         <v>562</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="F54" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" s="38" t="s">
         <v>563</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="H54" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="42"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="36"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="43"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="41">
+        <v>2012</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="35"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="42"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="36"/>
+    </row>
+    <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="42"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="36"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="42"/>
+      <c r="C60" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="36"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="42"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="36"/>
+    </row>
+    <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="42"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="36"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="42"/>
+      <c r="C63" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="36"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="42"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="36"/>
+    </row>
+    <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="43"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="37"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="41">
+        <v>2013</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="35"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="42"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="36"/>
+    </row>
+    <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="42"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="42"/>
+      <c r="C69" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="36"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="42"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="42"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="42"/>
+      <c r="C72" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="J72" s="16"/>
+      <c r="K72" s="36"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="42"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="36"/>
+    </row>
+    <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="43"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="37"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="41">
+        <v>2014</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="G75" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="I75" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="J75" s="16"/>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="42"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="42"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="36"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="42"/>
+      <c r="C78" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="I78" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="36"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="42"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="36"/>
+    </row>
+    <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="42"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="42"/>
+      <c r="C81" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="I81" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="J81" s="16"/>
+      <c r="K81" s="36"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="42"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="36"/>
+    </row>
+    <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="43"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="37"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="41">
+        <v>2015</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G84" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="G54" s="34" t="s">
-        <v>564</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>565</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>566</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="38"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="41"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="38"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="42"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="39"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="40">
-        <v>2012</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>567</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>568</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>570</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="I57" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="37"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="38"/>
-    </row>
-    <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="38"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
-      <c r="C60" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="38"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="38"/>
-    </row>
-    <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="38"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
-      <c r="C63" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G63" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>580</v>
-      </c>
-      <c r="I63" s="34" t="s">
-        <v>581</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="38"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="38"/>
-    </row>
-    <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="42"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="39"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="40">
-        <v>2013</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>584</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="37"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="38"/>
-    </row>
-    <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="41"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="38"/>
-    </row>
-    <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="E69" s="34" t="s">
+      <c r="H84" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="J84" s="16"/>
+      <c r="K84" s="35"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="42"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="36"/>
+    </row>
+    <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="42"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="36"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="42"/>
+      <c r="C87" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="36"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="42"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="36"/>
+    </row>
+    <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="42"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="42"/>
+      <c r="C90" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>627</v>
+      </c>
+      <c r="I90" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="36"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="42"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="42"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="36"/>
+    </row>
+    <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="42"/>
+      <c r="C93" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="J93" s="16"/>
+      <c r="K93" s="36"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="42"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="43"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="37"/>
+    </row>
+    <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="41">
+        <v>2016</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="F96" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="I96" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="J96" s="16"/>
+      <c r="K96" s="35"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="42"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="42"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="42"/>
+      <c r="C99" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>639</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I99" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="J99" s="16"/>
+      <c r="K99" s="36"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="42"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="36"/>
+    </row>
+    <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="42"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="36"/>
+    </row>
+    <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="42"/>
+      <c r="C102" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="F102" s="38" t="s">
+        <v>647</v>
+      </c>
+      <c r="G102" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="H102" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="I102" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="J102" s="16"/>
+      <c r="K102" s="36"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="42"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="36"/>
+    </row>
+    <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="42"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="36"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="42"/>
+      <c r="C105" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="J105" s="16"/>
+      <c r="K105" s="36"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="42"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="42"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="36"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="42"/>
+      <c r="C108" s="38" t="s">
+        <v>655</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="F108" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="G108" s="38" t="s">
         <v>588</v>
       </c>
-      <c r="F69" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>591</v>
-      </c>
-      <c r="J69" s="16"/>
-      <c r="K69" s="38"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="38"/>
-    </row>
-    <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="41"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="38"/>
-    </row>
-    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="E72" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="G72" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="I72" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="38"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="38"/>
-    </row>
-    <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="42"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="39"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="40">
-        <v>2014</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>598</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>599</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>601</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="J75" s="16"/>
-      <c r="K75" s="37"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="38"/>
-    </row>
-    <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="41"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="38"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
-      <c r="C78" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>604</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>605</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>606</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="J78" s="16"/>
-      <c r="K78" s="38"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="41"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="38"/>
-    </row>
-    <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="41"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="38"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>609</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>610</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>605</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>611</v>
-      </c>
-      <c r="H81" s="34" t="s">
-        <v>612</v>
-      </c>
-      <c r="I81" s="34" t="s">
-        <v>613</v>
-      </c>
-      <c r="J81" s="16"/>
-      <c r="K81" s="38"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="38"/>
-    </row>
-    <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="42"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="39"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="40">
-        <v>2015</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>614</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G84" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="H84" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="I84" s="34" t="s">
-        <v>617</v>
-      </c>
-      <c r="J84" s="16"/>
-      <c r="K84" s="37"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="38"/>
-    </row>
-    <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="38"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
-      <c r="C87" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>618</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>619</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="H87" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="I87" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="J87" s="16"/>
-      <c r="K87" s="38"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="38"/>
-    </row>
-    <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="38"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
-      <c r="C90" s="34" t="s">
-        <v>623</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>624</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>625</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>626</v>
-      </c>
-      <c r="G90" s="34" t="s">
-        <v>627</v>
-      </c>
-      <c r="H90" s="34" t="s">
-        <v>628</v>
-      </c>
-      <c r="I90" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="38"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="38"/>
-    </row>
-    <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="41"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="38"/>
-    </row>
-    <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="41"/>
-      <c r="C93" s="34" t="s">
-        <v>630</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>631</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>632</v>
-      </c>
-      <c r="F93" s="34" t="s">
-        <v>626</v>
-      </c>
-      <c r="G93" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="H93" s="34" t="s">
-        <v>633</v>
-      </c>
-      <c r="I93" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="J93" s="16"/>
-      <c r="K93" s="38"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="41"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="38"/>
-    </row>
-    <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="42"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="39"/>
-    </row>
-    <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="40">
-        <v>2016</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>635</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="F96" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G96" s="34" t="s">
-        <v>637</v>
-      </c>
-      <c r="H96" s="34" t="s">
-        <v>638</v>
-      </c>
-      <c r="I96" s="34" t="s">
-        <v>639</v>
-      </c>
-      <c r="J96" s="16"/>
-      <c r="K96" s="37"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="38"/>
-    </row>
-    <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="41"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="38"/>
-    </row>
-    <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
-      <c r="C99" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D99" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="E99" s="34" t="s">
-        <v>641</v>
-      </c>
-      <c r="F99" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="G99" s="34" t="s">
-        <v>642</v>
-      </c>
-      <c r="H99" s="34" t="s">
-        <v>643</v>
-      </c>
-      <c r="I99" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="38"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="38"/>
-    </row>
-    <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="41"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="38"/>
-    </row>
-    <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
-      <c r="C102" s="34" t="s">
-        <v>645</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>646</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>647</v>
-      </c>
-      <c r="F102" s="34" t="s">
-        <v>648</v>
-      </c>
-      <c r="G102" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="H102" s="34" t="s">
-        <v>650</v>
-      </c>
-      <c r="I102" s="34" t="s">
-        <v>651</v>
-      </c>
-      <c r="J102" s="16"/>
-      <c r="K102" s="38"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="41"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="38"/>
-    </row>
-    <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="41"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="38"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
-      <c r="C105" s="34" t="s">
-        <v>630</v>
-      </c>
-      <c r="D105" s="34" t="s">
-        <v>652</v>
-      </c>
-      <c r="E105" s="34" t="s">
-        <v>653</v>
-      </c>
-      <c r="F105" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="G105" s="34" t="s">
-        <v>559</v>
-      </c>
-      <c r="H105" s="34" t="s">
-        <v>654</v>
-      </c>
-      <c r="I105" s="34" t="s">
-        <v>655</v>
-      </c>
-      <c r="J105" s="16"/>
-      <c r="K105" s="38"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="35"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="38"/>
-    </row>
-    <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="41"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="38"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
-      <c r="C108" s="34" t="s">
-        <v>656</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>657</v>
-      </c>
-      <c r="E108" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="F108" s="34" t="s">
+      <c r="H108" s="38" t="s">
         <v>659</v>
       </c>
-      <c r="G108" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="H108" s="34" t="s">
+      <c r="I108" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="I108" s="34" t="s">
+      <c r="J108" s="16"/>
+      <c r="K108" s="36"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="42"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="36"/>
+    </row>
+    <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="42"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="36"/>
+    </row>
+    <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="42"/>
+      <c r="C111" s="38" t="s">
         <v>661</v>
       </c>
-      <c r="J108" s="16"/>
-      <c r="K108" s="38"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="41"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="38"/>
-    </row>
-    <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="41"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="38"/>
-    </row>
-    <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="41"/>
-      <c r="C111" s="34" t="s">
+      <c r="D111" s="38" t="s">
         <v>662</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="E111" s="38" t="s">
         <v>663</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="F111" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="G111" s="38" t="s">
         <v>664</v>
       </c>
-      <c r="F111" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G111" s="34" t="s">
+      <c r="H111" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="H111" s="34" t="s">
+      <c r="I111" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="I111" s="34" t="s">
-        <v>667</v>
-      </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="38"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="41"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="38"/>
+      <c r="K112" s="36"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="42"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="39"/>
+      <c r="K113" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -7578,263 +7848,6 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7845,7 +7858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB85FFF-F490-4DF7-B70A-0D2981D3B3F1}">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -8111,7 +8124,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -8286,7 +8299,7 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -8360,7 +8373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0F505F-778E-408E-AABF-DAEC5D3D1824}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8378,7 +8391,7 @@
         <v>2021</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8588,7 +8601,7 @@
         <v>2014</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8600,7 +8613,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8624,7 +8637,7 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8660,7 +8673,7 @@
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8680,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01952BBE-0128-400F-8B69-81ADD09E9B45}">
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8694,32 +8707,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="48">
         <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="2" t="s">
         <v>704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8731,35 +8744,35 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="47">
         <v>2020</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -8771,7 +8784,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="49">
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -8783,7 +8796,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
@@ -8793,7 +8806,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
@@ -8803,7 +8816,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
@@ -8821,7 +8834,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="49">
         <v>2018</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -8833,7 +8846,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -8843,7 +8856,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
@@ -8855,7 +8868,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -8873,7 +8886,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="49">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -8885,7 +8898,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -8901,7 +8914,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="48">
+      <c r="A25" s="49">
         <v>2016</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -8915,7 +8928,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
@@ -8929,7 +8942,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+      <c r="A28" s="49">
         <v>2015</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8941,7 +8954,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -8951,7 +8964,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
@@ -8963,7 +8976,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
@@ -8979,7 +8992,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="49">
         <v>2014</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -8989,7 +9002,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
@@ -8997,7 +9010,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
@@ -9011,7 +9024,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
+      <c r="A37" s="49">
         <v>2013</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9023,7 +9036,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
@@ -9033,7 +9046,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
@@ -9049,7 +9062,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="A41" s="49">
         <v>2012</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -9059,7 +9072,7 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
@@ -9069,7 +9082,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
@@ -9099,8 +9112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE82E6A-8B6B-48D4-AEF5-64634308157A}">
   <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9130,7 +9143,7 @@
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -9165,7 +9178,7 @@
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -9353,9 +9366,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>419</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -9365,17 +9378,17 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -9385,17 +9398,17 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -9405,17 +9418,17 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -9425,17 +9438,17 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -9445,17 +9458,17 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -9465,17 +9478,17 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -9489,7 +9502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F684A95-8B8B-441F-8521-668095A7ECC7}">
   <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -9504,13 +9517,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9522,19 +9535,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9546,13 +9559,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9564,13 +9577,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9582,13 +9595,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9600,13 +9613,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9618,13 +9631,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9636,13 +9649,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9654,13 +9667,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9672,13 +9685,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9690,13 +9703,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -9725,17 +9738,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -9748,17 +9761,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -9771,17 +9784,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D719A-D5DA-43AF-B319-7A86BD16BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41A74F-2145-4B53-817F-5715AFA400F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" activeTab="7" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" firstSheet="1" activeTab="3" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
     <sheet name="国赛2" sheetId="5" r:id="rId2"/>
     <sheet name="美赛" sheetId="3" r:id="rId3"/>
-    <sheet name="研究生赛" sheetId="4" r:id="rId4"/>
-    <sheet name="深圳杯" sheetId="6" r:id="rId5"/>
-    <sheet name="mathorcup" sheetId="1" r:id="rId6"/>
-    <sheet name="五一" sheetId="7" r:id="rId7"/>
-    <sheet name="华中赛" sheetId="10" r:id="rId8"/>
-    <sheet name="中青杯" sheetId="8" r:id="rId9"/>
-    <sheet name="APMCM" sheetId="9" r:id="rId10"/>
-    <sheet name="电工杯" sheetId="11" r:id="rId11"/>
-    <sheet name="数维杯" sheetId="12" r:id="rId12"/>
-    <sheet name="东三省" sheetId="13" r:id="rId13"/>
-    <sheet name="华东杯" sheetId="14" r:id="rId14"/>
-    <sheet name="认证杯" sheetId="15" r:id="rId15"/>
+    <sheet name="美赛2" sheetId="18" r:id="rId4"/>
+    <sheet name="研究生赛" sheetId="4" r:id="rId5"/>
+    <sheet name="深圳杯" sheetId="6" r:id="rId6"/>
+    <sheet name="mathorcup" sheetId="1" r:id="rId7"/>
+    <sheet name="五一" sheetId="7" r:id="rId8"/>
+    <sheet name="华中赛" sheetId="10" r:id="rId9"/>
+    <sheet name="中青杯" sheetId="8" r:id="rId10"/>
+    <sheet name="APMCM" sheetId="9" r:id="rId11"/>
+    <sheet name="电工杯" sheetId="11" r:id="rId12"/>
+    <sheet name="数维杯" sheetId="12" r:id="rId13"/>
+    <sheet name="东三省" sheetId="13" r:id="rId14"/>
+    <sheet name="华东杯" sheetId="14" r:id="rId15"/>
+    <sheet name="认证杯" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="900">
   <si>
     <t>数据驱动的城市轨道交通网络优化策略</t>
   </si>
@@ -1588,9 +1590,6 @@
   </si>
   <si>
     <t>给大陆洗个澡</t>
-  </si>
-  <si>
-    <t>研究一下由于全球气温升高造成的北极冰帽融化对大陆的影响</t>
   </si>
   <si>
     <t>环境气候</t>
@@ -2700,6 +2699,245 @@
       </rPr>
       <t>题：生态文明建设评价问题</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">美国大学生数学建模竞赛题解析与研究 第2辑 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国大学生数学建模竞赛题解析与研究 第2辑</t>
+  </si>
+  <si>
+    <t>美国大学生数学建模竞赛题解析与研究 第3辑</t>
+  </si>
+  <si>
+    <t>美国大学生数学建模竞赛题解析与研究 第1辑</t>
+  </si>
+  <si>
+    <t>研究一下由于全球气温升高造成的北极冰帽融化对大陆的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特技表演中用以缓冲
+特技演员跌落伤害所使用纸箱的设计问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽马刀手术的最佳治疗方案， 球体填充问题</t>
+  </si>
+  <si>
+    <t>航空安全中爆炸物检测系统的配置以及航班安排</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国大学生数学建模竞赛题解析与研究 第2辑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国大学生数学建模竞赛题解析与研究 第4辑 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指纹的唯一性问题</t>
+  </si>
+  <si>
+    <t>美国大学生数学建模竞赛题解析与研究 第4辑</t>
+  </si>
+  <si>
+    <t>大型游乐场所如何减少游客
+的排队时间并且提高其满意度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术安全性的风险评估与优化配置</t>
+  </si>
+  <si>
+    <t>热量在不同形状的烤盘表面的分布</t>
+  </si>
+  <si>
+    <t>美国大学生数学建模竞赛题解析与研究 第5辑</t>
+  </si>
+  <si>
+    <t>美国大学生数学建模竞赛题解析与研究 第5辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪情报地理信息分析</t>
+  </si>
+  <si>
+    <t>交通环岛的优化设计</t>
+  </si>
+  <si>
+    <t>珊瑚礁生态系统:  重新平衡被人类影响的生态系统</t>
+  </si>
+  <si>
+    <t>泛太平洋垃圾带的影响与预测</t>
+  </si>
+  <si>
+    <t>混凝土板地板的导热问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对该动物群体的捕获量的最佳方针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略金属钻的储存管理数学模型</t>
+  </si>
+  <si>
+    <t>计算平面和螺旋在空间中一般位置(的所有交点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大坝决口洪水估计问题</t>
+  </si>
+  <si>
+    <t>高速公路收费亭设置问题</t>
+  </si>
+  <si>
+    <t>不可再生资源的管理问题</t>
+  </si>
+  <si>
+    <t>艾滋病的传播与资源分配</t>
+  </si>
+  <si>
+    <t>北极冰帽融化对大陆的影响</t>
+  </si>
+  <si>
+    <t>建立数独拼图游戏生成算法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国大学生数学建模竞赛题解析与研究 第1辑 </t>
+  </si>
+  <si>
+    <t>微分方程，圣维南方程</t>
+  </si>
+  <si>
+    <t>交通流，排队论，元胞自动机</t>
+  </si>
+  <si>
+    <t>介绍了丰富全面的模型&gt;&gt;</t>
+  </si>
+  <si>
+    <t>水道测量数据三维重建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急设施的位置</t>
+  </si>
+  <si>
+    <t>建立一个数学模型并求得在仓库中的盐堆的最大高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计停车场的安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定毒品走私船的位置，直升飞机的最佳搜索方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两辆铁路平板车的装货问题</t>
+  </si>
+  <si>
+    <t>蠓的分类</t>
+  </si>
+  <si>
+    <t>飞机排队，使乘客和航空公司双方满意的数学模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到药物影响的区域药物的分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两辆扫雪车扫清马路上的雪的有效的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计水塔的水流量</t>
+  </si>
+  <si>
+    <t>通讯网络的极小生成树</t>
+  </si>
+  <si>
+    <t>空中交通控制雷达的功率问题</t>
+  </si>
+  <si>
+    <t>应急电力修复系统的修复计划</t>
+  </si>
+  <si>
+    <t>加速餐厅剩菜堆肥的生成</t>
+  </si>
+  <si>
+    <t>倒煤台的操作方案</t>
+  </si>
+  <si>
+    <t>计算机网络的最短传输时间</t>
+  </si>
+  <si>
+    <t>公平台理的工资系统方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪音场中潜艇的探测</t>
+  </si>
+  <si>
+    <t>竞赛评判问题</t>
+  </si>
+  <si>
+    <t>恐龙捕猎及逃避模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为取得富有成果的讨论怎样搭配与会成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁共振成像扫描仪扫描算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩给分的通胀</t>
+  </si>
+  <si>
+    <t>小行星与地球的碰撞产生什么后果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立数学模型以确定标上多大人数值才是“合法容量”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间交通管制</t>
+  </si>
+  <si>
+    <t>无线电信道分配</t>
+  </si>
+  <si>
+    <t>选择自行车车轮</t>
+  </si>
+  <si>
+    <t>车辆疏散撤离模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的水系-不确定的前景</t>
+  </si>
+  <si>
+    <t>运用风速计给出的数据来调整由喷泉射出的水流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验各种超员订票方案对于航空公司收入的影响，以求找到一个最优订票策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌木蜥蜴的生存与栖息地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优的淡水分配策略和对经济、自然和环境的影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2916,7 +3154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2976,6 +3214,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3EDF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2985,7 +3232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3091,6 +3338,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3118,6 +3371,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3135,6 +3397,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3453,7 +3736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377C56D-B101-47A9-BDFA-BBD6CC974595}">
   <dimension ref="B1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3757,11 +4040,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9094EE49-AB33-40F7-8EC5-A9B073C1BE03}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F0A86-47AF-44BB-BF68-19660EB181D7}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3781,7 +4150,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -3840,7 +4209,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="36" t="s">
         <v>455</v>
       </c>
     </row>
@@ -3866,12 +4235,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -3884,12 +4253,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +4268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7512D05F-60F3-4FE8-90AB-23E6956D3F76}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3912,12 +4281,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AE54B3-A4DB-45FA-8699-E1BC832F135A}">
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3928,10 +4297,10 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>721</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3946,10 +4315,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -3958,10 +4327,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -3970,10 +4339,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4000,10 +4369,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -4012,10 +4381,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4024,10 +4393,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -4054,7 +4423,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4064,7 +4433,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -4074,7 +4443,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -4097,7 +4466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B3CEB5-4ACF-44B9-9391-87BF760EE005}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -4119,14 +4488,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -4145,42 +4514,42 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -4199,28 +4568,28 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -4235,7 +4604,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,12 +4617,12 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4266,7 +4635,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -4275,12 +4644,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA7F449-CE48-42C9-9248-4802CA3CD6BB}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4297,21 +4666,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4330,21 +4699,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4363,21 +4732,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4396,21 +4765,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4429,21 +4798,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4462,21 +4831,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4495,21 +4864,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4528,21 +4897,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4568,11 +4937,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF2496-2DB7-40B3-878F-DAA954FC589B}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -4586,42 +4955,42 @@
         <v>2008</v>
       </c>
       <c r="B1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4631,22 +5000,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4656,22 +5025,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -4681,22 +5050,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -4706,22 +5075,22 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -4731,22 +5100,22 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
@@ -4756,22 +5125,22 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -4781,22 +5150,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -4806,22 +5175,22 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -4831,22 +5200,22 @@
     </row>
     <row r="59" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
@@ -4856,22 +5225,22 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -4881,22 +5250,22 @@
     </row>
     <row r="71" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -4906,22 +5275,22 @@
     </row>
     <row r="77" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -4935,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CF2AA-8C2B-432D-9350-2C8F7C538763}">
   <dimension ref="A1:A170"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5586,7 +5955,7 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
@@ -5611,32 +5980,32 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +6020,7 @@
   <dimension ref="B1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F32"/>
+      <selection activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5694,1876 +6063,1876 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="41">
+      <c r="B3" s="43">
         <v>2006</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="40" t="s">
         <v>475</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="35"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="36"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="36"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="40" t="s">
         <v>481</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="36"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="36"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="36"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="40" t="s">
         <v>484</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="40" t="s">
         <v>488</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="36"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="36"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="41">
+      <c r="B12" s="43">
         <v>2007</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="40" t="s">
         <v>493</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="35"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="36"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="36"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="49" t="s">
         <v>497</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="36"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="45"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="42"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="40" t="s">
         <v>502</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="36"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="39"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="41">
+      <c r="B21" s="43">
         <v>2008</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="H21" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="44"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="44"/>
+      <c r="C27" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="44"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="39"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="43">
+        <v>2009</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="44"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="44"/>
+      <c r="C33" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="44"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="38"/>
+    </row>
+    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="44"/>
+      <c r="C36" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="44"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="45"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="39"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="43">
+        <v>2010</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="44"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="38"/>
+    </row>
+    <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="44"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="38"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="44"/>
+      <c r="C42" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="44"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="38"/>
+    </row>
+    <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="44"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="38"/>
+    </row>
+    <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="44"/>
+      <c r="C45" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="38"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="44"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="45"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="39"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="43">
+        <v>2011</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="37"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="44"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="38"/>
+    </row>
+    <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="44"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="38"/>
+    </row>
+    <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="44"/>
+      <c r="C51" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="38"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="44"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="38"/>
+    </row>
+    <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="44"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="38"/>
+    </row>
+    <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="44"/>
+      <c r="C54" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="38" t="s">
+      <c r="G54" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="38"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="44"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="38"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="45"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="39"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="43">
+        <v>2012</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="44"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="38"/>
+    </row>
+    <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="44"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="38"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="44"/>
+      <c r="C60" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>509</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="42"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
-      <c r="C27" s="38" t="s">
+      <c r="D60" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="38"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="44"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="38"/>
+    </row>
+    <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="44"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="38"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="44"/>
+      <c r="C63" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="G27" s="38" t="s">
+      <c r="D63" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="38"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="44"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="45"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="39"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="43">
+        <v>2013</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="37"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="44"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="38"/>
+    </row>
+    <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="44"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="38"/>
+    </row>
+    <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="44"/>
+      <c r="C69" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="I69" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="38"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="44"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="38"/>
+    </row>
+    <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="44"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="38"/>
+    </row>
+    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="44"/>
+      <c r="C72" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="I72" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="J72" s="16"/>
+      <c r="K72" s="38"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="44"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="38"/>
+    </row>
+    <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="45"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="39"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="43">
+        <v>2014</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="G75" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="I75" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="J75" s="16"/>
+      <c r="K75" s="37"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="44"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="38"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="44"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="38"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="44"/>
+      <c r="C78" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="38"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="44"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="38"/>
+    </row>
+    <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="44"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="38"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="44"/>
+      <c r="C81" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="F81" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="J81" s="16"/>
+      <c r="K81" s="38"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="44"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="38"/>
+    </row>
+    <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="45"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="39"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="43">
+        <v>2015</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="E84" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="F84" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="G84" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="41">
-        <v>2009</v>
-      </c>
-      <c r="C30" s="38" t="s">
+      <c r="H84" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="I84" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="J84" s="16"/>
+      <c r="K84" s="37"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="44"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="38"/>
+    </row>
+    <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="44"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="38"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="44"/>
+      <c r="C87" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="D87" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="H87" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="I87" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="38"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="44"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="38"/>
+    </row>
+    <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="44"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="38"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="44"/>
+      <c r="C90" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="F90" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="G90" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="I90" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="38"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="44"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="38"/>
+    </row>
+    <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="44"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="38"/>
+    </row>
+    <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="44"/>
+      <c r="C93" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="I93" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="J93" s="16"/>
+      <c r="K93" s="38"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="44"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="38"/>
+    </row>
+    <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="45"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="39"/>
+    </row>
+    <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="43">
+        <v>2016</v>
+      </c>
+      <c r="C96" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="F30" s="38" t="s">
+      <c r="D96" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="F96" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="35"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="42"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="42"/>
-      <c r="C33" s="38" t="s">
+      <c r="G96" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="H96" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="I96" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="J96" s="16"/>
+      <c r="K96" s="37"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="44"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="38"/>
+    </row>
+    <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="44"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="38"/>
+    </row>
+    <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="44"/>
+      <c r="C99" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="42"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="F36" s="38" t="s">
+      <c r="D99" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="H99" s="40" t="s">
+        <v>641</v>
+      </c>
+      <c r="I99" s="40" t="s">
+        <v>642</v>
+      </c>
+      <c r="J99" s="16"/>
+      <c r="K99" s="38"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="44"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="38"/>
+    </row>
+    <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="44"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="38"/>
+    </row>
+    <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="44"/>
+      <c r="C102" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="D102" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="E102" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="G102" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="H102" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="I102" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="J102" s="16"/>
+      <c r="K102" s="38"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="44"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="38"/>
+    </row>
+    <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="44"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="38"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="44"/>
+      <c r="C105" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>650</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="I105" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="J105" s="16"/>
+      <c r="K105" s="38"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="44"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="38"/>
+    </row>
+    <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="44"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="38"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="44"/>
+      <c r="C108" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="F108" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="G108" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="I108" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="J108" s="16"/>
+      <c r="K108" s="38"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="44"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="38"/>
+    </row>
+    <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="44"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="38"/>
+    </row>
+    <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="44"/>
+      <c r="C111" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="F111" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="G36" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="43"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="41">
-        <v>2010</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="35"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="36"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="42"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="36"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="36"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="36"/>
-    </row>
-    <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="42"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="36"/>
-    </row>
-    <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="36"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="36"/>
-    </row>
-    <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="43"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="37"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="41">
-        <v>2011</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="35"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="36"/>
-    </row>
-    <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="42"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="36"/>
-    </row>
-    <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="36"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="36"/>
-    </row>
-    <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="42"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="36"/>
-    </row>
-    <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>561</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="36"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="36"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="43"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="37"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="41">
-        <v>2012</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="35"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="36"/>
-    </row>
-    <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="42"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="36"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G60" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="I60" s="38" t="s">
-        <v>576</v>
-      </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="36"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="42"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="36"/>
-    </row>
-    <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="42"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="36"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
-      <c r="C63" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>578</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="I63" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="36"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="36"/>
-    </row>
-    <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="43"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="37"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="41">
-        <v>2013</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="F66" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G66" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="H66" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="I66" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="35"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="36"/>
-    </row>
-    <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="42"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="36"/>
-    </row>
-    <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
-      <c r="C69" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="G69" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="H69" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="I69" s="38" t="s">
-        <v>590</v>
-      </c>
-      <c r="J69" s="16"/>
-      <c r="K69" s="36"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="42"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="36"/>
-    </row>
-    <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="42"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="36"/>
-    </row>
-    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="42"/>
-      <c r="C72" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="G72" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="H72" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="I72" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="36"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="42"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="36"/>
-    </row>
-    <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="43"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="37"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="41">
-        <v>2014</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="G75" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="H75" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="I75" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="J75" s="16"/>
-      <c r="K75" s="35"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="42"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="36"/>
-    </row>
-    <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="42"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="36"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
-      <c r="C78" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="F78" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="G78" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="H78" s="38" t="s">
-        <v>606</v>
-      </c>
-      <c r="I78" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="J78" s="16"/>
-      <c r="K78" s="36"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="36"/>
-    </row>
-    <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="42"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="36"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="42"/>
-      <c r="C81" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="F81" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="G81" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="H81" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="I81" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="J81" s="16"/>
-      <c r="K81" s="36"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="42"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="36"/>
-    </row>
-    <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="43"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="37"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="41">
-        <v>2015</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="H84" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="I84" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="J84" s="16"/>
-      <c r="K84" s="35"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="42"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="36"/>
-    </row>
-    <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="42"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="36"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="42"/>
-      <c r="C87" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="F87" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="G87" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="H87" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="I87" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="J87" s="16"/>
-      <c r="K87" s="36"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="36"/>
-    </row>
-    <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="42"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="36"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="42"/>
-      <c r="C90" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="H90" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="I90" s="38" t="s">
-        <v>628</v>
-      </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="36"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="42"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="36"/>
-    </row>
-    <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="42"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="36"/>
-    </row>
-    <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
-      <c r="C93" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>630</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="F93" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="G93" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="H93" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="I93" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="J93" s="16"/>
-      <c r="K93" s="36"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="42"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="36"/>
-    </row>
-    <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="43"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="37"/>
-    </row>
-    <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="41">
-        <v>2016</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="E96" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="F96" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G96" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="H96" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="I96" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="J96" s="16"/>
-      <c r="K96" s="35"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="42"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="36"/>
-    </row>
-    <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="42"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="36"/>
-    </row>
-    <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="42"/>
-      <c r="C99" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="D99" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="E99" s="38" t="s">
-        <v>640</v>
-      </c>
-      <c r="F99" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="H99" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I99" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="36"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="42"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="36"/>
-    </row>
-    <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="42"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="36"/>
-    </row>
-    <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="42"/>
-      <c r="C102" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="F102" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="G102" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="I102" s="38" t="s">
-        <v>650</v>
-      </c>
-      <c r="J102" s="16"/>
-      <c r="K102" s="36"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="36"/>
-    </row>
-    <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="42"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="36"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="42"/>
-      <c r="C105" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="F105" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="G105" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="H105" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="I105" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="J105" s="16"/>
-      <c r="K105" s="36"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="42"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="36"/>
-    </row>
-    <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="42"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="36"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="42"/>
-      <c r="C108" s="38" t="s">
-        <v>655</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="E108" s="38" t="s">
-        <v>657</v>
-      </c>
-      <c r="F108" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="G108" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="H108" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="I108" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="J108" s="16"/>
-      <c r="K108" s="36"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="42"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="36"/>
-    </row>
-    <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="42"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="36"/>
-    </row>
-    <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="42"/>
-      <c r="C111" s="38" t="s">
-        <v>661</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="E111" s="38" t="s">
+      <c r="G111" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="F111" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G111" s="38" t="s">
+      <c r="H111" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="H111" s="38" t="s">
+      <c r="I111" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="I111" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="36"/>
+      <c r="K111" s="38"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="42"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="36"/>
+      <c r="K112" s="38"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="43"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
-      <c r="F113" s="40"/>
-      <c r="G113" s="40"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="37"/>
+      <c r="K113" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="281">
@@ -7851,15 +8220,920 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A502D-1946-41EB-A3CA-7C5F95A8F3A0}">
+  <dimension ref="A1:D169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="56"/>
+    <col min="2" max="2" width="34.77734375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="56">
+        <v>1985</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <v>1986</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>1987</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="55" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <v>1988</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="55" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>1989</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="55" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>1990</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="55" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="55" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
+        <v>1992</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="55" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
+        <v>1993</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="55" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <v>1994</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="55" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <v>1995</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="55" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="59">
+        <v>1996</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="55" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
+        <v>1997</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="55" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
+        <v>1998</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="55" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="59">
+        <v>1999</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="55" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="59">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="55" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="59">
+        <v>2001</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="55" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="55" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="59">
+        <v>2002</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="55" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="55" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="59">
+        <v>2003</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>835</v>
+      </c>
+      <c r="D39" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="D40" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="55" t="s">
+        <v>837</v>
+      </c>
+      <c r="D41" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="59">
+        <v>2004</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>840</v>
+      </c>
+      <c r="D42" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="55" t="s">
+        <v>842</v>
+      </c>
+      <c r="D43" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="55" t="s">
+        <v>843</v>
+      </c>
+      <c r="D44" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="59">
+        <v>2005</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>855</v>
+      </c>
+      <c r="C45" t="s">
+        <v>862</v>
+      </c>
+      <c r="D45" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="61" t="s">
+        <v>856</v>
+      </c>
+      <c r="C46" t="s">
+        <v>863</v>
+      </c>
+      <c r="D46" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="55" t="s">
+        <v>857</v>
+      </c>
+      <c r="D47" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="59">
+        <v>2006</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="D48" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="D49" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="60" t="s">
+        <v>858</v>
+      </c>
+      <c r="C50" t="s">
+        <v>864</v>
+      </c>
+      <c r="D50" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="59">
+        <v>2007</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="D51" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="55" t="s">
+        <v>494</v>
+      </c>
+      <c r="D52" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="59"/>
+      <c r="B53" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="D53" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="59">
+        <v>2008</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>859</v>
+      </c>
+      <c r="D54" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="55" t="s">
+        <v>860</v>
+      </c>
+      <c r="D55" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="59"/>
+      <c r="B56" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="D56" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="59">
+        <v>2009</v>
+      </c>
+      <c r="B57" s="55" t="s">
+        <v>848</v>
+      </c>
+      <c r="D57" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="59"/>
+      <c r="B58" s="55" t="s">
+        <v>523</v>
+      </c>
+      <c r="D58" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="D59" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="59">
+        <v>2010</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>534</v>
+      </c>
+      <c r="D60" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="55" t="s">
+        <v>847</v>
+      </c>
+      <c r="D61" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="59"/>
+      <c r="B62" s="55" t="s">
+        <v>850</v>
+      </c>
+      <c r="D62" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="59">
+        <v>2011</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="55" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="55" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="59">
+        <v>2012</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="55" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="59"/>
+      <c r="B68" s="55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="59">
+        <v>2013</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="D69" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="55" t="s">
+        <v>899</v>
+      </c>
+      <c r="D70" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="59"/>
+      <c r="B71" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="D71" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="59">
+        <v>2014</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="55" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="59"/>
+      <c r="B74" s="55" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="59">
+        <v>2015</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="55" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="55" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="59"/>
+      <c r="B78" s="55" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="59">
+        <v>2016</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="55" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="59"/>
+      <c r="B81" s="55" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="55" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="55" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="59"/>
+      <c r="B84" s="55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="59">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="59"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="59"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="59"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="59"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="59">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="59"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="59"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="59"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="59"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="59"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="59">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="59"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="59"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="59">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="59"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="59"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="59"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="59"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="59"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="59">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="59"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="59"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="59"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="59"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="59"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="59"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="35"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="35"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="35"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="35"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="35"/>
+    </row>
+    <row r="136" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="35"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="35"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="35"/>
+    </row>
+    <row r="139" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="35"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="35"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="35"/>
+    </row>
+    <row r="142" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="35"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="35"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="35"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="35"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="35"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="35"/>
+    </row>
+    <row r="148" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="35"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="35"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="35"/>
+    </row>
+    <row r="151" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="35"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="35"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="35"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="35"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="35"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="35"/>
+    </row>
+    <row r="157" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="35"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="35"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="35"/>
+    </row>
+    <row r="160" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="35"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="35"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="35"/>
+    </row>
+    <row r="163" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="35"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="35"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="35"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="35"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="35"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="35"/>
+    </row>
+    <row r="169" spans="3:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB85FFF-F490-4DF7-B70A-0D2981D3B3F1}">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8124,7 +9398,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -8299,7 +9573,7 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -8369,12 +9643,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0F505F-778E-408E-AABF-DAEC5D3D1824}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8391,7 +9665,7 @@
         <v>2021</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8613,7 +9887,7 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8689,12 +9963,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01952BBE-0128-400F-8B69-81ADD09E9B45}">
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8707,32 +9981,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="53">
         <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="2" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8744,35 +10018,35 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="A7" s="52">
         <v>2020</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -8784,7 +10058,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="54">
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -8796,7 +10070,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
@@ -8806,7 +10080,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
@@ -8816,7 +10090,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
@@ -8834,7 +10108,7 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="54">
         <v>2018</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -8846,7 +10120,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -8856,7 +10130,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
@@ -8868,7 +10142,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -8886,7 +10160,7 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="54">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -8898,7 +10172,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -8914,7 +10188,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="54">
         <v>2016</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -8928,7 +10202,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
@@ -8942,7 +10216,7 @@
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="54">
         <v>2015</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8954,7 +10228,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -8964,7 +10238,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
@@ -8976,7 +10250,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
@@ -8992,7 +10266,7 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+      <c r="A33" s="54">
         <v>2014</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -9002,7 +10276,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
@@ -9010,7 +10284,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
@@ -9024,7 +10298,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+      <c r="A37" s="54">
         <v>2013</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -9036,7 +10310,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
@@ -9046,7 +10320,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
@@ -9062,7 +10336,7 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="49">
+      <c r="A41" s="54">
         <v>2012</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -9072,7 +10346,7 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
@@ -9082,7 +10356,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
@@ -9108,12 +10382,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE82E6A-8B6B-48D4-AEF5-64634308157A}">
   <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9143,7 +10417,7 @@
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -9178,7 +10452,7 @@
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -9368,7 +10642,7 @@
     </row>
     <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -9498,11 +10772,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F684A95-8B8B-441F-8521-668095A7ECC7}">
   <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -9517,13 +10791,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9535,19 +10809,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -9559,13 +10833,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9577,13 +10851,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -9595,13 +10869,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9613,13 +10887,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9631,13 +10905,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9649,13 +10923,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9667,13 +10941,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9685,13 +10959,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9703,103 +10977,17 @@
         <v>13</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9094EE49-AB33-40F7-8EC5-A9B073C1BE03}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03ED0B1-08D8-4B28-8B56-3B999E4178E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0058BBC6-97BC-433D-823E-85748B92CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" firstSheet="1" activeTab="3" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
@@ -3609,15 +3609,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3628,6 +3619,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,6 +3636,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3643,15 +3652,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6316,1876 +6316,2133 @@
       <c r="B3" s="47">
         <v>2006</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="44" t="s">
         <v>474</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="44"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="45"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="45"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="44" t="s">
         <v>480</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="45"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="44" t="s">
         <v>487</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="47">
         <v>2007</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="44" t="s">
         <v>492</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="48"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="53" t="s">
         <v>496</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="48"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="51"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="48"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="52"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="45"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="44" t="s">
         <v>501</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="46"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="47">
         <v>2008</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="44" t="s">
         <v>833</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="44" t="s">
         <v>505</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="44"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="45"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="48"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="45"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="44" t="s">
         <v>511</v>
       </c>
       <c r="J24" s="16"/>
-      <c r="K24" s="45"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="45"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="48"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="42"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="44" t="s">
         <v>516</v>
       </c>
       <c r="J27" s="16"/>
-      <c r="K27" s="45"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="48"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="42"/>
     </row>
     <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="49"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="47">
         <v>2009</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="44" t="s">
         <v>518</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="44" t="s">
         <v>521</v>
       </c>
       <c r="J30" s="16"/>
-      <c r="K30" s="44"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="45"/>
+      <c r="K31" s="42"/>
     </row>
     <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="48"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="45"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="48"/>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="44" t="s">
         <v>527</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="K33" s="45"/>
+      <c r="K33" s="42"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="45"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="48"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="45"/>
+      <c r="K35" s="42"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="48"/>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="44" t="s">
         <v>532</v>
       </c>
       <c r="J36" s="16"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="42"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="45"/>
+      <c r="K37" s="42"/>
     </row>
     <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="46"/>
+      <c r="K38" s="43"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="47">
         <v>2010</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="I39" s="44" t="s">
         <v>538</v>
       </c>
       <c r="J39" s="16"/>
-      <c r="K39" s="44"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="48"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="45"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="48"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="45"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="48"/>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I42" s="44" t="s">
         <v>543</v>
       </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="48"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="45"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="48"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="45"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="48"/>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="44" t="s">
         <v>544</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="I45" s="41" t="s">
+      <c r="I45" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J45" s="16"/>
-      <c r="K45" s="45"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="48"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="45"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="46"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="47">
         <v>2011</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="44" t="s">
         <v>553</v>
       </c>
       <c r="J48" s="16"/>
-      <c r="K48" s="44"/>
+      <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="48"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="45"/>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="48"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="45"/>
+      <c r="K50" s="42"/>
     </row>
     <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="48"/>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="44" t="s">
         <v>557</v>
       </c>
-      <c r="I51" s="41" t="s">
+      <c r="I51" s="44" t="s">
         <v>558</v>
       </c>
       <c r="J51" s="16"/>
-      <c r="K51" s="45"/>
+      <c r="K51" s="42"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="48"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="42"/>
     </row>
     <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="48"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="45"/>
+      <c r="K53" s="42"/>
     </row>
     <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="48"/>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="44" t="s">
         <v>559</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="44" t="s">
         <v>561</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="44" t="s">
         <v>562</v>
       </c>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="44" t="s">
         <v>563</v>
       </c>
       <c r="J54" s="16"/>
-      <c r="K54" s="45"/>
+      <c r="K54" s="42"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="48"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="45"/>
+      <c r="K55" s="42"/>
     </row>
     <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="49"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="46"/>
+      <c r="K56" s="43"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="47">
         <v>2012</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="I57" s="41" t="s">
+      <c r="I57" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J57" s="16"/>
-      <c r="K57" s="44"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="48"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="45"/>
+      <c r="K58" s="42"/>
     </row>
     <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="48"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="45"/>
+      <c r="K59" s="42"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="48"/>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="44" t="s">
         <v>571</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G60" s="41" t="s">
+      <c r="G60" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="44" t="s">
         <v>574</v>
       </c>
       <c r="J60" s="16"/>
-      <c r="K60" s="45"/>
+      <c r="K60" s="42"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="48"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="45"/>
+      <c r="K61" s="42"/>
     </row>
     <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="48"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="45"/>
+      <c r="K62" s="42"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="48"/>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="H63" s="41" t="s">
+      <c r="H63" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="I63" s="41" t="s">
+      <c r="I63" s="44" t="s">
         <v>578</v>
       </c>
       <c r="J63" s="16"/>
-      <c r="K63" s="45"/>
+      <c r="K63" s="42"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="48"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="45"/>
+      <c r="K64" s="42"/>
     </row>
     <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="49"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="46"/>
+      <c r="K65" s="43"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="47">
         <v>2013</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="F66" s="41" t="s">
+      <c r="F66" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G66" s="41" t="s">
+      <c r="G66" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="I66" s="41" t="s">
+      <c r="I66" s="44" t="s">
         <v>583</v>
       </c>
       <c r="J66" s="16"/>
-      <c r="K66" s="44"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="48"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="45"/>
+      <c r="K67" s="42"/>
     </row>
     <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="48"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="45"/>
+      <c r="K68" s="42"/>
     </row>
     <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="48"/>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G69" s="41" t="s">
+      <c r="G69" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="H69" s="41" t="s">
+      <c r="H69" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="I69" s="41" t="s">
+      <c r="I69" s="44" t="s">
         <v>588</v>
       </c>
       <c r="J69" s="16"/>
-      <c r="K69" s="45"/>
+      <c r="K69" s="42"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="48"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="45"/>
+      <c r="K70" s="42"/>
     </row>
     <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="48"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="45"/>
+      <c r="K71" s="42"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="48"/>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="I72" s="41" t="s">
+      <c r="I72" s="44" t="s">
         <v>593</v>
       </c>
       <c r="J72" s="16"/>
-      <c r="K72" s="45"/>
+      <c r="K72" s="42"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="48"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="45"/>
+      <c r="K73" s="42"/>
     </row>
     <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="49"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="46"/>
+      <c r="K74" s="43"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="47">
         <v>2014</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="F75" s="41" t="s">
+      <c r="F75" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="G75" s="41" t="s">
+      <c r="G75" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="I75" s="41" t="s">
+      <c r="I75" s="44" t="s">
         <v>599</v>
       </c>
       <c r="J75" s="16"/>
-      <c r="K75" s="44"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="48"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="45"/>
+      <c r="K76" s="42"/>
     </row>
     <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="48"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="45"/>
+      <c r="K77" s="42"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="48"/>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="G78" s="41" t="s">
+      <c r="G78" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="I78" s="41" t="s">
+      <c r="I78" s="44" t="s">
         <v>605</v>
       </c>
       <c r="J78" s="16"/>
-      <c r="K78" s="45"/>
+      <c r="K78" s="42"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="48"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="45"/>
+      <c r="K79" s="42"/>
     </row>
     <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="48"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="45"/>
+      <c r="K80" s="42"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="48"/>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="G81" s="41" t="s">
+      <c r="G81" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="H81" s="41" t="s">
+      <c r="H81" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="I81" s="41" t="s">
+      <c r="I81" s="44" t="s">
         <v>610</v>
       </c>
       <c r="J81" s="16"/>
-      <c r="K81" s="45"/>
+      <c r="K81" s="42"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="48"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="45"/>
+      <c r="K82" s="42"/>
     </row>
     <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="49"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="46"/>
+      <c r="K83" s="43"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="47">
         <v>2015</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="44" t="s">
         <v>611</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="F84" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G84" s="41" t="s">
+      <c r="G84" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H84" s="41" t="s">
+      <c r="H84" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="I84" s="41" t="s">
+      <c r="I84" s="44" t="s">
         <v>614</v>
       </c>
       <c r="J84" s="16"/>
-      <c r="K84" s="44"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="48"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="45"/>
+      <c r="K85" s="42"/>
     </row>
     <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="48"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
       <c r="J86" s="18"/>
-      <c r="K86" s="45"/>
+      <c r="K86" s="42"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="48"/>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="44" t="s">
         <v>615</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="44" t="s">
         <v>616</v>
       </c>
-      <c r="F87" s="41" t="s">
+      <c r="F87" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="G87" s="41" t="s">
+      <c r="G87" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="H87" s="41" t="s">
+      <c r="H87" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="I87" s="41" t="s">
+      <c r="I87" s="44" t="s">
         <v>619</v>
       </c>
       <c r="J87" s="16"/>
-      <c r="K87" s="45"/>
+      <c r="K87" s="42"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="48"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="45"/>
+      <c r="K88" s="42"/>
     </row>
     <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="48"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
       <c r="J89" s="18"/>
-      <c r="K89" s="45"/>
+      <c r="K89" s="42"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="48"/>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="44" t="s">
         <v>620</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="E90" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="F90" s="41" t="s">
+      <c r="F90" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="G90" s="41" t="s">
+      <c r="G90" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="H90" s="41" t="s">
+      <c r="H90" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="I90" s="41" t="s">
+      <c r="I90" s="44" t="s">
         <v>626</v>
       </c>
       <c r="J90" s="16"/>
-      <c r="K90" s="45"/>
+      <c r="K90" s="42"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="48"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="45"/>
+      <c r="K91" s="42"/>
     </row>
     <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="48"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="45"/>
+      <c r="K92" s="42"/>
     </row>
     <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="48"/>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="F93" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="H93" s="41" t="s">
+      <c r="H93" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="I93" s="41" t="s">
+      <c r="I93" s="44" t="s">
         <v>631</v>
       </c>
       <c r="J93" s="16"/>
-      <c r="K93" s="45"/>
+      <c r="K93" s="42"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="48"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="45"/>
+      <c r="K94" s="42"/>
     </row>
     <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="49"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
       <c r="J95" s="18"/>
-      <c r="K95" s="46"/>
+      <c r="K95" s="43"/>
     </row>
     <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="47">
         <v>2016</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="44" t="s">
         <v>632</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="44" t="s">
         <v>633</v>
       </c>
-      <c r="F96" s="41" t="s">
+      <c r="F96" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="G96" s="44" t="s">
         <v>634</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="H96" s="44" t="s">
         <v>635</v>
       </c>
-      <c r="I96" s="41" t="s">
+      <c r="I96" s="44" t="s">
         <v>636</v>
       </c>
       <c r="J96" s="16"/>
-      <c r="K96" s="44"/>
+      <c r="K96" s="41"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="48"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="45"/>
+      <c r="K97" s="42"/>
     </row>
     <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="48"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
       <c r="J98" s="18"/>
-      <c r="K98" s="45"/>
+      <c r="K98" s="42"/>
     </row>
     <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="48"/>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="44" t="s">
         <v>638</v>
       </c>
-      <c r="F99" s="41" t="s">
+      <c r="F99" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="G99" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="H99" s="41" t="s">
+      <c r="H99" s="44" t="s">
         <v>640</v>
       </c>
-      <c r="I99" s="41" t="s">
+      <c r="I99" s="44" t="s">
         <v>641</v>
       </c>
       <c r="J99" s="16"/>
-      <c r="K99" s="45"/>
+      <c r="K99" s="42"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="48"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="45"/>
+      <c r="K100" s="42"/>
     </row>
     <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="48"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="45"/>
+      <c r="K101" s="42"/>
     </row>
     <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="48"/>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="44" t="s">
         <v>642</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D102" s="44" t="s">
         <v>643</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="F102" s="41" t="s">
+      <c r="F102" s="44" t="s">
         <v>645</v>
       </c>
-      <c r="G102" s="41" t="s">
+      <c r="G102" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="H102" s="41" t="s">
+      <c r="H102" s="44" t="s">
         <v>647</v>
       </c>
-      <c r="I102" s="41" t="s">
+      <c r="I102" s="44" t="s">
         <v>648</v>
       </c>
       <c r="J102" s="16"/>
-      <c r="K102" s="45"/>
+      <c r="K102" s="42"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="48"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
       <c r="J103" s="17"/>
-      <c r="K103" s="45"/>
+      <c r="K103" s="42"/>
     </row>
     <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="48"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
       <c r="J104" s="18"/>
-      <c r="K104" s="45"/>
+      <c r="K104" s="42"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="48"/>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="H105" s="41" t="s">
+      <c r="H105" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="I105" s="44" t="s">
         <v>652</v>
       </c>
       <c r="J105" s="16"/>
-      <c r="K105" s="45"/>
+      <c r="K105" s="42"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="48"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
       <c r="J106" s="17"/>
-      <c r="K106" s="45"/>
+      <c r="K106" s="42"/>
     </row>
     <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="48"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
       <c r="J107" s="18"/>
-      <c r="K107" s="45"/>
+      <c r="K107" s="42"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="48"/>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="44" t="s">
         <v>653</v>
       </c>
-      <c r="D108" s="41" t="s">
+      <c r="D108" s="44" t="s">
         <v>654</v>
       </c>
-      <c r="E108" s="41" t="s">
+      <c r="E108" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="F108" s="41" t="s">
+      <c r="F108" s="44" t="s">
         <v>656</v>
       </c>
-      <c r="G108" s="41" t="s">
+      <c r="G108" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="H108" s="41" t="s">
+      <c r="H108" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="I108" s="41" t="s">
+      <c r="I108" s="44" t="s">
         <v>658</v>
       </c>
       <c r="J108" s="16"/>
-      <c r="K108" s="45"/>
+      <c r="K108" s="42"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="48"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
       <c r="J109" s="17"/>
-      <c r="K109" s="45"/>
+      <c r="K109" s="42"/>
     </row>
     <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="48"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
       <c r="J110" s="18"/>
-      <c r="K110" s="45"/>
+      <c r="K110" s="42"/>
     </row>
     <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="48"/>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="41" t="s">
+      <c r="D111" s="44" t="s">
         <v>660</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="F111" s="41" t="s">
+      <c r="F111" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G111" s="41" t="s">
+      <c r="G111" s="44" t="s">
         <v>662</v>
       </c>
-      <c r="H111" s="41" t="s">
+      <c r="H111" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="I111" s="41" t="s">
+      <c r="I111" s="44" t="s">
         <v>664</v>
       </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="45"/>
+      <c r="K111" s="42"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="48"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="45"/>
+      <c r="K112" s="42"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="49"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="46"/>
+      <c r="K113" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -8210,263 +8467,6 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8478,8 +8478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A502D-1946-41EB-A3CA-7C5F95A8F3A0}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="39" t="s">
         <v>912</v>
       </c>
       <c r="D77" t="s">
@@ -9172,7 +9172,7 @@
       <c r="A85" s="38">
         <v>2017</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="39" t="s">
         <v>918</v>
       </c>
     </row>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="39" t="s">
         <v>921</v>
       </c>
     </row>
@@ -9375,8 +9375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB85FFF-F490-4DF7-B70A-0D2981D3B3F1}">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9890,7 +9890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0F505F-778E-408E-AABF-DAEC5D3D1824}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -10210,7 +10210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01952BBE-0128-400F-8B69-81ADD09E9B45}">
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10629,7 +10629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE82E6A-8B6B-48D4-AEF5-64634308157A}">
   <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
@@ -11019,7 +11019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F684A95-8B8B-441F-8521-668095A7ECC7}">
   <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0058BBC6-97BC-433D-823E-85748B92CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2599FC-42C6-4866-BB98-78FA35618A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" firstSheet="1" activeTab="3" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
@@ -3609,6 +3609,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3619,15 +3628,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,6 +3636,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3643,15 +3652,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6316,2133 +6316,1876 @@
       <c r="B3" s="47">
         <v>2006</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="41" t="s">
         <v>474</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="41"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="42"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="42"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="41" t="s">
         <v>480</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="42"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="42"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="41" t="s">
         <v>487</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="42"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="47">
         <v>2007</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="41" t="s">
         <v>492</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="42"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="48"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="42"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="50" t="s">
         <v>496</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="42"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="54"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="48"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="55"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="42"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="41" t="s">
         <v>498</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="41" t="s">
         <v>501</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="42"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="42"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="43"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="47">
         <v>2008</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="41" t="s">
         <v>833</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="41" t="s">
         <v>505</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="42"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="48"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="42"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="41" t="s">
         <v>511</v>
       </c>
       <c r="J24" s="16"/>
-      <c r="K24" s="42"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="42"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="48"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="42"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="41" t="s">
         <v>516</v>
       </c>
       <c r="J27" s="16"/>
-      <c r="K27" s="42"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="48"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="42"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="49"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="43"/>
+      <c r="K29" s="46"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="47">
         <v>2009</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="41" t="s">
         <v>521</v>
       </c>
       <c r="J30" s="16"/>
-      <c r="K30" s="41"/>
+      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="42"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="48"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="42"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="48"/>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="41" t="s">
         <v>527</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="K33" s="42"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="42"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="48"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="42"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="48"/>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="41" t="s">
         <v>532</v>
       </c>
       <c r="J36" s="16"/>
-      <c r="K36" s="42"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="42"/>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="43"/>
+      <c r="K38" s="46"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="47">
         <v>2010</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="41" t="s">
         <v>538</v>
       </c>
       <c r="J39" s="16"/>
-      <c r="K39" s="41"/>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="48"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="42"/>
+      <c r="K40" s="45"/>
     </row>
     <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="48"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="42"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="48"/>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="41" t="s">
         <v>543</v>
       </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="42"/>
+      <c r="K42" s="45"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="48"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="42"/>
+      <c r="K43" s="45"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="48"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="42"/>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="48"/>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="41" t="s">
         <v>547</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="41" t="s">
         <v>549</v>
       </c>
       <c r="J45" s="16"/>
-      <c r="K45" s="42"/>
+      <c r="K45" s="45"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="48"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="42"/>
+      <c r="K46" s="45"/>
     </row>
     <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="43"/>
+      <c r="K47" s="46"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="47">
         <v>2011</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="41" t="s">
         <v>550</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="41" t="s">
         <v>552</v>
       </c>
-      <c r="I48" s="44" t="s">
+      <c r="I48" s="41" t="s">
         <v>553</v>
       </c>
       <c r="J48" s="16"/>
-      <c r="K48" s="41"/>
+      <c r="K48" s="44"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="48"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="42"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="48"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="42"/>
+      <c r="K50" s="45"/>
     </row>
     <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="48"/>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="I51" s="44" t="s">
+      <c r="I51" s="41" t="s">
         <v>558</v>
       </c>
       <c r="J51" s="16"/>
-      <c r="K51" s="42"/>
+      <c r="K51" s="45"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="48"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="42"/>
+      <c r="K52" s="45"/>
     </row>
     <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="48"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="42"/>
+      <c r="K53" s="45"/>
     </row>
     <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="48"/>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="H54" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="41" t="s">
         <v>563</v>
       </c>
       <c r="J54" s="16"/>
-      <c r="K54" s="42"/>
+      <c r="K54" s="45"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="48"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="42"/>
+      <c r="K55" s="45"/>
     </row>
     <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="49"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="43"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="47">
         <v>2012</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="H57" s="44" t="s">
+      <c r="H57" s="41" t="s">
         <v>568</v>
       </c>
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="41" t="s">
         <v>569</v>
       </c>
       <c r="J57" s="16"/>
-      <c r="K57" s="41"/>
+      <c r="K57" s="44"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="48"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="42"/>
+      <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="48"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="42"/>
+      <c r="K59" s="45"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="48"/>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="41" t="s">
         <v>570</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="H60" s="44" t="s">
+      <c r="H60" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="I60" s="44" t="s">
+      <c r="I60" s="41" t="s">
         <v>574</v>
       </c>
       <c r="J60" s="16"/>
-      <c r="K60" s="42"/>
+      <c r="K60" s="45"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="48"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="42"/>
+      <c r="K61" s="45"/>
     </row>
     <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="48"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="42"/>
+      <c r="K62" s="45"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="48"/>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G63" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="H63" s="44" t="s">
+      <c r="H63" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="I63" s="44" t="s">
+      <c r="I63" s="41" t="s">
         <v>578</v>
       </c>
       <c r="J63" s="16"/>
-      <c r="K63" s="42"/>
+      <c r="K63" s="45"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="48"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="42"/>
+      <c r="K64" s="45"/>
     </row>
     <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="49"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="43"/>
+      <c r="K65" s="46"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="47">
         <v>2013</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G66" s="44" t="s">
+      <c r="G66" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="I66" s="44" t="s">
+      <c r="I66" s="41" t="s">
         <v>583</v>
       </c>
       <c r="J66" s="16"/>
-      <c r="K66" s="41"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="48"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="42"/>
+      <c r="K67" s="45"/>
     </row>
     <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="48"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="42"/>
+      <c r="K68" s="45"/>
     </row>
     <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="48"/>
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="E69" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F69" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G69" s="44" t="s">
+      <c r="G69" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="I69" s="44" t="s">
+      <c r="I69" s="41" t="s">
         <v>588</v>
       </c>
       <c r="J69" s="16"/>
-      <c r="K69" s="42"/>
+      <c r="K69" s="45"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="48"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="42"/>
+      <c r="K70" s="45"/>
     </row>
     <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="48"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="42"/>
+      <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="48"/>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="E72" s="44" t="s">
+      <c r="E72" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="F72" s="44" t="s">
+      <c r="F72" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="G72" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="H72" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="I72" s="44" t="s">
+      <c r="I72" s="41" t="s">
         <v>593</v>
       </c>
       <c r="J72" s="16"/>
-      <c r="K72" s="42"/>
+      <c r="K72" s="45"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="48"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="42"/>
+      <c r="K73" s="45"/>
     </row>
     <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="49"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="43"/>
+      <c r="K74" s="46"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="47">
         <v>2014</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="G75" s="44" t="s">
+      <c r="G75" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="H75" s="44" t="s">
+      <c r="H75" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="41" t="s">
         <v>599</v>
       </c>
       <c r="J75" s="16"/>
-      <c r="K75" s="41"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="48"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="42"/>
+      <c r="K76" s="45"/>
     </row>
     <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="48"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="42"/>
+      <c r="K77" s="45"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="48"/>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="E78" s="44" t="s">
+      <c r="E78" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="G78" s="44" t="s">
+      <c r="G78" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="H78" s="44" t="s">
+      <c r="H78" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="I78" s="44" t="s">
+      <c r="I78" s="41" t="s">
         <v>605</v>
       </c>
       <c r="J78" s="16"/>
-      <c r="K78" s="42"/>
+      <c r="K78" s="45"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="48"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="42"/>
+      <c r="K79" s="45"/>
     </row>
     <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="48"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="42"/>
+      <c r="K80" s="45"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="48"/>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="41" t="s">
         <v>606</v>
       </c>
-      <c r="E81" s="44" t="s">
+      <c r="E81" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="G81" s="44" t="s">
+      <c r="G81" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="H81" s="44" t="s">
+      <c r="H81" s="41" t="s">
         <v>609</v>
       </c>
-      <c r="I81" s="44" t="s">
+      <c r="I81" s="41" t="s">
         <v>610</v>
       </c>
       <c r="J81" s="16"/>
-      <c r="K81" s="42"/>
+      <c r="K81" s="45"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="48"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="42"/>
+      <c r="K82" s="45"/>
     </row>
     <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="49"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="43"/>
+      <c r="K83" s="46"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="47">
         <v>2015</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="E84" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G84" s="44" t="s">
+      <c r="G84" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H84" s="44" t="s">
+      <c r="H84" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="I84" s="44" t="s">
+      <c r="I84" s="41" t="s">
         <v>614</v>
       </c>
       <c r="J84" s="16"/>
-      <c r="K84" s="41"/>
+      <c r="K84" s="44"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="48"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="42"/>
+      <c r="K85" s="45"/>
     </row>
     <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="48"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
       <c r="J86" s="18"/>
-      <c r="K86" s="42"/>
+      <c r="K86" s="45"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="48"/>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="E87" s="44" t="s">
+      <c r="E87" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="G87" s="44" t="s">
+      <c r="G87" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="H87" s="44" t="s">
+      <c r="H87" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="I87" s="44" t="s">
+      <c r="I87" s="41" t="s">
         <v>619</v>
       </c>
       <c r="J87" s="16"/>
-      <c r="K87" s="42"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="48"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="42"/>
+      <c r="K88" s="45"/>
     </row>
     <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="48"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
       <c r="J89" s="18"/>
-      <c r="K89" s="42"/>
+      <c r="K89" s="45"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="48"/>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="D90" s="44" t="s">
+      <c r="D90" s="41" t="s">
         <v>621</v>
       </c>
-      <c r="E90" s="44" t="s">
+      <c r="E90" s="41" t="s">
         <v>622</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="G90" s="44" t="s">
+      <c r="G90" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="H90" s="44" t="s">
+      <c r="H90" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I90" s="44" t="s">
+      <c r="I90" s="41" t="s">
         <v>626</v>
       </c>
       <c r="J90" s="16"/>
-      <c r="K90" s="42"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="48"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="42"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="48"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="42"/>
+      <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="48"/>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="E93" s="44" t="s">
+      <c r="E93" s="41" t="s">
         <v>629</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="G93" s="44" t="s">
+      <c r="G93" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="H93" s="44" t="s">
+      <c r="H93" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="I93" s="44" t="s">
+      <c r="I93" s="41" t="s">
         <v>631</v>
       </c>
       <c r="J93" s="16"/>
-      <c r="K93" s="42"/>
+      <c r="K93" s="45"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="48"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="42"/>
+      <c r="K94" s="45"/>
     </row>
     <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="49"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
       <c r="J95" s="18"/>
-      <c r="K95" s="43"/>
+      <c r="K95" s="46"/>
     </row>
     <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="47">
         <v>2016</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="41" t="s">
         <v>632</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="41" t="s">
         <v>633</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G96" s="44" t="s">
+      <c r="G96" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="H96" s="44" t="s">
+      <c r="H96" s="41" t="s">
         <v>635</v>
       </c>
-      <c r="I96" s="44" t="s">
+      <c r="I96" s="41" t="s">
         <v>636</v>
       </c>
       <c r="J96" s="16"/>
-      <c r="K96" s="41"/>
+      <c r="K96" s="44"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="48"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="42"/>
+      <c r="K97" s="45"/>
     </row>
     <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="48"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
       <c r="J98" s="18"/>
-      <c r="K98" s="42"/>
+      <c r="K98" s="45"/>
     </row>
     <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="48"/>
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="41" t="s">
         <v>637</v>
       </c>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="G99" s="44" t="s">
+      <c r="G99" s="41" t="s">
         <v>639</v>
       </c>
-      <c r="H99" s="44" t="s">
+      <c r="H99" s="41" t="s">
         <v>640</v>
       </c>
-      <c r="I99" s="44" t="s">
+      <c r="I99" s="41" t="s">
         <v>641</v>
       </c>
       <c r="J99" s="16"/>
-      <c r="K99" s="42"/>
+      <c r="K99" s="45"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="48"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="42"/>
+      <c r="K100" s="45"/>
     </row>
     <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="48"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="42"/>
+      <c r="K101" s="45"/>
     </row>
     <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="48"/>
-      <c r="C102" s="44" t="s">
+      <c r="C102" s="41" t="s">
         <v>642</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="41" t="s">
         <v>643</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="41" t="s">
         <v>645</v>
       </c>
-      <c r="G102" s="44" t="s">
+      <c r="G102" s="41" t="s">
         <v>646</v>
       </c>
-      <c r="H102" s="44" t="s">
+      <c r="H102" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="I102" s="44" t="s">
+      <c r="I102" s="41" t="s">
         <v>648</v>
       </c>
       <c r="J102" s="16"/>
-      <c r="K102" s="42"/>
+      <c r="K102" s="45"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="48"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
       <c r="J103" s="17"/>
-      <c r="K103" s="42"/>
+      <c r="K103" s="45"/>
     </row>
     <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="48"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
       <c r="J104" s="18"/>
-      <c r="K104" s="42"/>
+      <c r="K104" s="45"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="48"/>
-      <c r="C105" s="44" t="s">
+      <c r="C105" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="D105" s="41" t="s">
         <v>649</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="E105" s="41" t="s">
         <v>650</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F105" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G105" s="44" t="s">
+      <c r="G105" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="H105" s="44" t="s">
+      <c r="H105" s="41" t="s">
         <v>651</v>
       </c>
-      <c r="I105" s="44" t="s">
+      <c r="I105" s="41" t="s">
         <v>652</v>
       </c>
       <c r="J105" s="16"/>
-      <c r="K105" s="42"/>
+      <c r="K105" s="45"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="48"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
       <c r="J106" s="17"/>
-      <c r="K106" s="42"/>
+      <c r="K106" s="45"/>
     </row>
     <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="48"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="46"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
       <c r="J107" s="18"/>
-      <c r="K107" s="42"/>
+      <c r="K107" s="45"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="48"/>
-      <c r="C108" s="44" t="s">
+      <c r="C108" s="41" t="s">
         <v>653</v>
       </c>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="E108" s="44" t="s">
+      <c r="E108" s="41" t="s">
         <v>655</v>
       </c>
-      <c r="F108" s="44" t="s">
+      <c r="F108" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="G108" s="44" t="s">
+      <c r="G108" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H108" s="44" t="s">
+      <c r="H108" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="I108" s="44" t="s">
+      <c r="I108" s="41" t="s">
         <v>658</v>
       </c>
       <c r="J108" s="16"/>
-      <c r="K108" s="42"/>
+      <c r="K108" s="45"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="48"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
       <c r="J109" s="17"/>
-      <c r="K109" s="42"/>
+      <c r="K109" s="45"/>
     </row>
     <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="48"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
       <c r="J110" s="18"/>
-      <c r="K110" s="42"/>
+      <c r="K110" s="45"/>
     </row>
     <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="48"/>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="E111" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="F111" s="44" t="s">
+      <c r="F111" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G111" s="44" t="s">
+      <c r="G111" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="H111" s="44" t="s">
+      <c r="H111" s="41" t="s">
         <v>663</v>
       </c>
-      <c r="I111" s="44" t="s">
+      <c r="I111" s="41" t="s">
         <v>664</v>
       </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="42"/>
+      <c r="K111" s="45"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="48"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="42"/>
+      <c r="K112" s="45"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="49"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="43"/>
+      <c r="K113" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -8467,6 +8210,263 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8478,8 +8478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A502D-1946-41EB-A3CA-7C5F95A8F3A0}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习文件\数学建模\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2599FC-42C6-4866-BB98-78FA35618A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A7614F-E1C3-4F77-B04A-2F0BA83DEEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" firstSheet="1" activeTab="3" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" activeTab="1" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
@@ -3609,15 +3609,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3628,6 +3619,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,6 +3636,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3643,15 +3652,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4293,7 +4293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9094EE49-AB33-40F7-8EC5-A9B073C1BE03}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4380,7 +4380,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4536,7 +4536,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5554,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CF2AA-8C2B-432D-9350-2C8F7C538763}">
   <dimension ref="A1:A170"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6269,7 +6269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB69F93-987D-412E-B8E8-8B5BDAF26EF0}">
   <dimension ref="B1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
@@ -6316,1876 +6316,2133 @@
       <c r="B3" s="47">
         <v>2006</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="44" t="s">
         <v>474</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="44"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="45"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="45"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="44" t="s">
         <v>480</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="45"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="44" t="s">
         <v>487</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="46"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="47">
         <v>2007</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="44" t="s">
         <v>492</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="48"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="53" t="s">
         <v>496</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="48"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="51"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="48"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="52"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="45"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="44" t="s">
         <v>501</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="46"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="47">
         <v>2008</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="44" t="s">
         <v>833</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="44" t="s">
         <v>505</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="44"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="45"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="48"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="45"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="44" t="s">
         <v>511</v>
       </c>
       <c r="J24" s="16"/>
-      <c r="K24" s="45"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="45"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="48"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="42"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="44" t="s">
         <v>516</v>
       </c>
       <c r="J27" s="16"/>
-      <c r="K27" s="45"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="48"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="42"/>
     </row>
     <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="49"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="47">
         <v>2009</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="44" t="s">
         <v>518</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="44" t="s">
         <v>521</v>
       </c>
       <c r="J30" s="16"/>
-      <c r="K30" s="44"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="45"/>
+      <c r="K31" s="42"/>
     </row>
     <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="48"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="45"/>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="48"/>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="44" t="s">
         <v>527</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="K33" s="45"/>
+      <c r="K33" s="42"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="45"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="48"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="45"/>
+      <c r="K35" s="42"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="48"/>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="44" t="s">
         <v>532</v>
       </c>
       <c r="J36" s="16"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="42"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="45"/>
+      <c r="K37" s="42"/>
     </row>
     <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="46"/>
+      <c r="K38" s="43"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="47">
         <v>2010</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="I39" s="44" t="s">
         <v>538</v>
       </c>
       <c r="J39" s="16"/>
-      <c r="K39" s="44"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="48"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="45"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="48"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="45"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="48"/>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I42" s="44" t="s">
         <v>543</v>
       </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="48"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="45"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="48"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="45"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="48"/>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="44" t="s">
         <v>544</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="I45" s="41" t="s">
+      <c r="I45" s="44" t="s">
         <v>549</v>
       </c>
       <c r="J45" s="16"/>
-      <c r="K45" s="45"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="48"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="45"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="46"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="47">
         <v>2011</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="44" t="s">
         <v>553</v>
       </c>
       <c r="J48" s="16"/>
-      <c r="K48" s="44"/>
+      <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="48"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="45"/>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="48"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="45"/>
+      <c r="K50" s="42"/>
     </row>
     <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="48"/>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="H51" s="41" t="s">
+      <c r="H51" s="44" t="s">
         <v>557</v>
       </c>
-      <c r="I51" s="41" t="s">
+      <c r="I51" s="44" t="s">
         <v>558</v>
       </c>
       <c r="J51" s="16"/>
-      <c r="K51" s="45"/>
+      <c r="K51" s="42"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="48"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="42"/>
     </row>
     <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="48"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="45"/>
+      <c r="K53" s="42"/>
     </row>
     <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="48"/>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="44" t="s">
         <v>559</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="44" t="s">
         <v>561</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="44" t="s">
         <v>562</v>
       </c>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="44" t="s">
         <v>563</v>
       </c>
       <c r="J54" s="16"/>
-      <c r="K54" s="45"/>
+      <c r="K54" s="42"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="48"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="45"/>
+      <c r="K55" s="42"/>
     </row>
     <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="49"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="46"/>
+      <c r="K56" s="43"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="47">
         <v>2012</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="F57" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="I57" s="41" t="s">
+      <c r="I57" s="44" t="s">
         <v>569</v>
       </c>
       <c r="J57" s="16"/>
-      <c r="K57" s="44"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="48"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="45"/>
+      <c r="K58" s="42"/>
     </row>
     <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="48"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="45"/>
+      <c r="K59" s="42"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="48"/>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="44" t="s">
         <v>571</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G60" s="41" t="s">
+      <c r="G60" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="44" t="s">
         <v>574</v>
       </c>
       <c r="J60" s="16"/>
-      <c r="K60" s="45"/>
+      <c r="K60" s="42"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="48"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="45"/>
+      <c r="K61" s="42"/>
     </row>
     <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="48"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="45"/>
+      <c r="K62" s="42"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="48"/>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="H63" s="41" t="s">
+      <c r="H63" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="I63" s="41" t="s">
+      <c r="I63" s="44" t="s">
         <v>578</v>
       </c>
       <c r="J63" s="16"/>
-      <c r="K63" s="45"/>
+      <c r="K63" s="42"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="48"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="45"/>
+      <c r="K64" s="42"/>
     </row>
     <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="49"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="46"/>
+      <c r="K65" s="43"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="47">
         <v>2013</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="F66" s="41" t="s">
+      <c r="F66" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G66" s="41" t="s">
+      <c r="G66" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="H66" s="41" t="s">
+      <c r="H66" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="I66" s="41" t="s">
+      <c r="I66" s="44" t="s">
         <v>583</v>
       </c>
       <c r="J66" s="16"/>
-      <c r="K66" s="44"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="48"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="45"/>
+      <c r="K67" s="42"/>
     </row>
     <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="48"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="45"/>
+      <c r="K68" s="42"/>
     </row>
     <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="48"/>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G69" s="41" t="s">
+      <c r="G69" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="H69" s="41" t="s">
+      <c r="H69" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="I69" s="41" t="s">
+      <c r="I69" s="44" t="s">
         <v>588</v>
       </c>
       <c r="J69" s="16"/>
-      <c r="K69" s="45"/>
+      <c r="K69" s="42"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="48"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="45"/>
+      <c r="K70" s="42"/>
     </row>
     <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="48"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="45"/>
+      <c r="K71" s="42"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="48"/>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="I72" s="41" t="s">
+      <c r="I72" s="44" t="s">
         <v>593</v>
       </c>
       <c r="J72" s="16"/>
-      <c r="K72" s="45"/>
+      <c r="K72" s="42"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="48"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="45"/>
+      <c r="K73" s="42"/>
     </row>
     <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="49"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="46"/>
+      <c r="K74" s="43"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="47">
         <v>2014</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="F75" s="41" t="s">
+      <c r="F75" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="G75" s="41" t="s">
+      <c r="G75" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="I75" s="41" t="s">
+      <c r="I75" s="44" t="s">
         <v>599</v>
       </c>
       <c r="J75" s="16"/>
-      <c r="K75" s="44"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="48"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="45"/>
+      <c r="K76" s="42"/>
     </row>
     <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="48"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="45"/>
+      <c r="K77" s="42"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="48"/>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="G78" s="41" t="s">
+      <c r="G78" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="I78" s="41" t="s">
+      <c r="I78" s="44" t="s">
         <v>605</v>
       </c>
       <c r="J78" s="16"/>
-      <c r="K78" s="45"/>
+      <c r="K78" s="42"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="48"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="45"/>
+      <c r="K79" s="42"/>
     </row>
     <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="48"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="45"/>
+      <c r="K80" s="42"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="48"/>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="G81" s="41" t="s">
+      <c r="G81" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="H81" s="41" t="s">
+      <c r="H81" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="I81" s="41" t="s">
+      <c r="I81" s="44" t="s">
         <v>610</v>
       </c>
       <c r="J81" s="16"/>
-      <c r="K81" s="45"/>
+      <c r="K81" s="42"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="48"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="45"/>
+      <c r="K82" s="42"/>
     </row>
     <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="49"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="46"/>
+      <c r="K83" s="43"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="47">
         <v>2015</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="44" t="s">
         <v>611</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="F84" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G84" s="41" t="s">
+      <c r="G84" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="H84" s="41" t="s">
+      <c r="H84" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="I84" s="41" t="s">
+      <c r="I84" s="44" t="s">
         <v>614</v>
       </c>
       <c r="J84" s="16"/>
-      <c r="K84" s="44"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="48"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="45"/>
+      <c r="K85" s="42"/>
     </row>
     <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="48"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
       <c r="J86" s="18"/>
-      <c r="K86" s="45"/>
+      <c r="K86" s="42"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="48"/>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="44" t="s">
         <v>615</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="44" t="s">
         <v>616</v>
       </c>
-      <c r="F87" s="41" t="s">
+      <c r="F87" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="G87" s="41" t="s">
+      <c r="G87" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="H87" s="41" t="s">
+      <c r="H87" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="I87" s="41" t="s">
+      <c r="I87" s="44" t="s">
         <v>619</v>
       </c>
       <c r="J87" s="16"/>
-      <c r="K87" s="45"/>
+      <c r="K87" s="42"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="48"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="45"/>
+      <c r="K88" s="42"/>
     </row>
     <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="48"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
       <c r="J89" s="18"/>
-      <c r="K89" s="45"/>
+      <c r="K89" s="42"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="48"/>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="44" t="s">
         <v>620</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="E90" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="F90" s="41" t="s">
+      <c r="F90" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="G90" s="41" t="s">
+      <c r="G90" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="H90" s="41" t="s">
+      <c r="H90" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="I90" s="41" t="s">
+      <c r="I90" s="44" t="s">
         <v>626</v>
       </c>
       <c r="J90" s="16"/>
-      <c r="K90" s="45"/>
+      <c r="K90" s="42"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="48"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="45"/>
+      <c r="K91" s="42"/>
     </row>
     <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="48"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="45"/>
+      <c r="K92" s="42"/>
     </row>
     <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="48"/>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="F93" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="H93" s="41" t="s">
+      <c r="H93" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="I93" s="41" t="s">
+      <c r="I93" s="44" t="s">
         <v>631</v>
       </c>
       <c r="J93" s="16"/>
-      <c r="K93" s="45"/>
+      <c r="K93" s="42"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="48"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="45"/>
+      <c r="K94" s="42"/>
     </row>
     <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="49"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
       <c r="J95" s="18"/>
-      <c r="K95" s="46"/>
+      <c r="K95" s="43"/>
     </row>
     <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="47">
         <v>2016</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="44" t="s">
         <v>632</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="44" t="s">
         <v>633</v>
       </c>
-      <c r="F96" s="41" t="s">
+      <c r="F96" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="G96" s="44" t="s">
         <v>634</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="H96" s="44" t="s">
         <v>635</v>
       </c>
-      <c r="I96" s="41" t="s">
+      <c r="I96" s="44" t="s">
         <v>636</v>
       </c>
       <c r="J96" s="16"/>
-      <c r="K96" s="44"/>
+      <c r="K96" s="41"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="48"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="45"/>
+      <c r="K97" s="42"/>
     </row>
     <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="48"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
       <c r="J98" s="18"/>
-      <c r="K98" s="45"/>
+      <c r="K98" s="42"/>
     </row>
     <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="48"/>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="44" t="s">
         <v>638</v>
       </c>
-      <c r="F99" s="41" t="s">
+      <c r="F99" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="G99" s="41" t="s">
+      <c r="G99" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="H99" s="41" t="s">
+      <c r="H99" s="44" t="s">
         <v>640</v>
       </c>
-      <c r="I99" s="41" t="s">
+      <c r="I99" s="44" t="s">
         <v>641</v>
       </c>
       <c r="J99" s="16"/>
-      <c r="K99" s="45"/>
+      <c r="K99" s="42"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="48"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="45"/>
+      <c r="K100" s="42"/>
     </row>
     <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="48"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="45"/>
+      <c r="K101" s="42"/>
     </row>
     <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="48"/>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="44" t="s">
         <v>642</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D102" s="44" t="s">
         <v>643</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="F102" s="41" t="s">
+      <c r="F102" s="44" t="s">
         <v>645</v>
       </c>
-      <c r="G102" s="41" t="s">
+      <c r="G102" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="H102" s="41" t="s">
+      <c r="H102" s="44" t="s">
         <v>647</v>
       </c>
-      <c r="I102" s="41" t="s">
+      <c r="I102" s="44" t="s">
         <v>648</v>
       </c>
       <c r="J102" s="16"/>
-      <c r="K102" s="45"/>
+      <c r="K102" s="42"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="48"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
       <c r="J103" s="17"/>
-      <c r="K103" s="45"/>
+      <c r="K103" s="42"/>
     </row>
     <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="48"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
       <c r="J104" s="18"/>
-      <c r="K104" s="45"/>
+      <c r="K104" s="42"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="48"/>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="G105" s="41" t="s">
+      <c r="G105" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="H105" s="41" t="s">
+      <c r="H105" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="I105" s="44" t="s">
         <v>652</v>
       </c>
       <c r="J105" s="16"/>
-      <c r="K105" s="45"/>
+      <c r="K105" s="42"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="48"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
       <c r="J106" s="17"/>
-      <c r="K106" s="45"/>
+      <c r="K106" s="42"/>
     </row>
     <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="48"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
       <c r="J107" s="18"/>
-      <c r="K107" s="45"/>
+      <c r="K107" s="42"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="48"/>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="44" t="s">
         <v>653</v>
       </c>
-      <c r="D108" s="41" t="s">
+      <c r="D108" s="44" t="s">
         <v>654</v>
       </c>
-      <c r="E108" s="41" t="s">
+      <c r="E108" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="F108" s="41" t="s">
+      <c r="F108" s="44" t="s">
         <v>656</v>
       </c>
-      <c r="G108" s="41" t="s">
+      <c r="G108" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="H108" s="41" t="s">
+      <c r="H108" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="I108" s="41" t="s">
+      <c r="I108" s="44" t="s">
         <v>658</v>
       </c>
       <c r="J108" s="16"/>
-      <c r="K108" s="45"/>
+      <c r="K108" s="42"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="48"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
       <c r="J109" s="17"/>
-      <c r="K109" s="45"/>
+      <c r="K109" s="42"/>
     </row>
     <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="48"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
       <c r="J110" s="18"/>
-      <c r="K110" s="45"/>
+      <c r="K110" s="42"/>
     </row>
     <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="48"/>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="41" t="s">
+      <c r="D111" s="44" t="s">
         <v>660</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="F111" s="41" t="s">
+      <c r="F111" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="G111" s="41" t="s">
+      <c r="G111" s="44" t="s">
         <v>662</v>
       </c>
-      <c r="H111" s="41" t="s">
+      <c r="H111" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="I111" s="41" t="s">
+      <c r="I111" s="44" t="s">
         <v>664</v>
       </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="45"/>
+      <c r="K111" s="42"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="48"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="45"/>
+      <c r="K112" s="42"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="49"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="46"/>
+      <c r="K113" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -8210,263 +8467,6 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8478,8 +8478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A502D-1946-41EB-A3CA-7C5F95A8F3A0}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9890,7 +9890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0F505F-778E-408E-AABF-DAEC5D3D1824}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -10210,8 +10210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01952BBE-0128-400F-8B69-81ADD09E9B45}">
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11019,7 +11019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F684A95-8B8B-441F-8521-668095A7ECC7}">
   <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/历年比赛题目.xlsx
+++ b/历年比赛题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\数学建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A7614F-E1C3-4F77-B04A-2F0BA83DEEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F388D-89CE-467B-A00A-81EEEB8E3894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" activeTab="1" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" tabRatio="711" activeTab="1" xr2:uid="{CEC29710-910E-4F7B-A46D-5DE4A1F5E246}"/>
   </bookViews>
   <sheets>
     <sheet name="国赛" sheetId="2" r:id="rId1"/>
@@ -3609,6 +3609,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3619,15 +3628,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,6 +3636,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3643,15 +3652,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5554,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73CF2AA-8C2B-432D-9350-2C8F7C538763}">
   <dimension ref="A1:A170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6316,2133 +6316,1876 @@
       <c r="B3" s="47">
         <v>2006</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="41" t="s">
         <v>474</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="41"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="42"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="42"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="41" t="s">
         <v>480</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="42"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="42"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="41" t="s">
         <v>487</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="42"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="47">
         <v>2007</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="41" t="s">
         <v>492</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="42"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="48"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="42"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="50" t="s">
         <v>496</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="42"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="54"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="48"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="55"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="42"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="41" t="s">
         <v>498</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="41" t="s">
         <v>501</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="42"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="42"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="43"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="47">
         <v>2008</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="41" t="s">
         <v>833</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="41" t="s">
         <v>505</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="42"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="48"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="42"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="41" t="s">
         <v>511</v>
       </c>
       <c r="J24" s="16"/>
-      <c r="K24" s="42"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="42"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="48"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="42"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="41" t="s">
         <v>513</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="H27" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="41" t="s">
         <v>516</v>
       </c>
       <c r="J27" s="16"/>
-      <c r="K27" s="42"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="48"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="42"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="49"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="43"/>
+      <c r="K29" s="46"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="47">
         <v>2009</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="41" t="s">
         <v>521</v>
       </c>
       <c r="J30" s="16"/>
-      <c r="K30" s="41"/>
+      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="42"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="48"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="42"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="48"/>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="41" t="s">
         <v>527</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="K33" s="42"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="42"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="48"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="18"/>
-      <c r="K35" s="42"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="48"/>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="41" t="s">
         <v>532</v>
       </c>
       <c r="J36" s="16"/>
-      <c r="K36" s="42"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="42"/>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="49"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="18"/>
-      <c r="K38" s="43"/>
+      <c r="K38" s="46"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="47">
         <v>2010</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="41" t="s">
         <v>538</v>
       </c>
       <c r="J39" s="16"/>
-      <c r="K39" s="41"/>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="48"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="42"/>
+      <c r="K40" s="45"/>
     </row>
     <row r="41" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="48"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="18"/>
-      <c r="K41" s="42"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="48"/>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="41" t="s">
         <v>543</v>
       </c>
       <c r="J42" s="16"/>
-      <c r="K42" s="42"/>
+      <c r="K42" s="45"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="48"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="42"/>
+      <c r="K43" s="45"/>
     </row>
     <row r="44" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="48"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="42"/>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="48"/>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="41" t="s">
         <v>547</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="41" t="s">
         <v>549</v>
       </c>
       <c r="J45" s="16"/>
-      <c r="K45" s="42"/>
+      <c r="K45" s="45"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="48"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="42"/>
+      <c r="K46" s="45"/>
     </row>
     <row r="47" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="49"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="43"/>
+      <c r="K47" s="46"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="47">
         <v>2011</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="41" t="s">
         <v>550</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="H48" s="41" t="s">
         <v>552</v>
       </c>
-      <c r="I48" s="44" t="s">
+      <c r="I48" s="41" t="s">
         <v>553</v>
       </c>
       <c r="J48" s="16"/>
-      <c r="K48" s="41"/>
+      <c r="K48" s="44"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="48"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="42"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="48"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
       <c r="J50" s="18"/>
-      <c r="K50" s="42"/>
+      <c r="K50" s="45"/>
     </row>
     <row r="51" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="48"/>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="I51" s="44" t="s">
+      <c r="I51" s="41" t="s">
         <v>558</v>
       </c>
       <c r="J51" s="16"/>
-      <c r="K51" s="42"/>
+      <c r="K51" s="45"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="48"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="42"/>
+      <c r="K52" s="45"/>
     </row>
     <row r="53" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="48"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
       <c r="J53" s="18"/>
-      <c r="K53" s="42"/>
+      <c r="K53" s="45"/>
     </row>
     <row r="54" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="48"/>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="41" t="s">
         <v>560</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="H54" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="I54" s="44" t="s">
+      <c r="I54" s="41" t="s">
         <v>563</v>
       </c>
       <c r="J54" s="16"/>
-      <c r="K54" s="42"/>
+      <c r="K54" s="45"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="48"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="42"/>
+      <c r="K55" s="45"/>
     </row>
     <row r="56" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="49"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
       <c r="J56" s="18"/>
-      <c r="K56" s="43"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="47">
         <v>2012</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="H57" s="44" t="s">
+      <c r="H57" s="41" t="s">
         <v>568</v>
       </c>
-      <c r="I57" s="44" t="s">
+      <c r="I57" s="41" t="s">
         <v>569</v>
       </c>
       <c r="J57" s="16"/>
-      <c r="K57" s="41"/>
+      <c r="K57" s="44"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="48"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="42"/>
+      <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="48"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="42"/>
+      <c r="K59" s="45"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="48"/>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="41" t="s">
         <v>570</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="H60" s="44" t="s">
+      <c r="H60" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="I60" s="44" t="s">
+      <c r="I60" s="41" t="s">
         <v>574</v>
       </c>
       <c r="J60" s="16"/>
-      <c r="K60" s="42"/>
+      <c r="K60" s="45"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="48"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="42"/>
+      <c r="K61" s="45"/>
     </row>
     <row r="62" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="48"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
       <c r="J62" s="18"/>
-      <c r="K62" s="42"/>
+      <c r="K62" s="45"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="48"/>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G63" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="H63" s="44" t="s">
+      <c r="H63" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="I63" s="44" t="s">
+      <c r="I63" s="41" t="s">
         <v>578</v>
       </c>
       <c r="J63" s="16"/>
-      <c r="K63" s="42"/>
+      <c r="K63" s="45"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="48"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="42"/>
+      <c r="K64" s="45"/>
     </row>
     <row r="65" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="49"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
       <c r="J65" s="18"/>
-      <c r="K65" s="43"/>
+      <c r="K65" s="46"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="47">
         <v>2013</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G66" s="44" t="s">
+      <c r="G66" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="I66" s="44" t="s">
+      <c r="I66" s="41" t="s">
         <v>583</v>
       </c>
       <c r="J66" s="16"/>
-      <c r="K66" s="41"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="48"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="42"/>
+      <c r="K67" s="45"/>
     </row>
     <row r="68" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="48"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
       <c r="J68" s="18"/>
-      <c r="K68" s="42"/>
+      <c r="K68" s="45"/>
     </row>
     <row r="69" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="48"/>
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="E69" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F69" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G69" s="44" t="s">
+      <c r="G69" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="H69" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="I69" s="44" t="s">
+      <c r="I69" s="41" t="s">
         <v>588</v>
       </c>
       <c r="J69" s="16"/>
-      <c r="K69" s="42"/>
+      <c r="K69" s="45"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="48"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="42"/>
+      <c r="K70" s="45"/>
     </row>
     <row r="71" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="48"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="42"/>
+      <c r="K71" s="45"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="48"/>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="E72" s="44" t="s">
+      <c r="E72" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="F72" s="44" t="s">
+      <c r="F72" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="G72" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="H72" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="I72" s="44" t="s">
+      <c r="I72" s="41" t="s">
         <v>593</v>
       </c>
       <c r="J72" s="16"/>
-      <c r="K72" s="42"/>
+      <c r="K72" s="45"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="48"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="42"/>
+      <c r="K73" s="45"/>
     </row>
     <row r="74" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="49"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
       <c r="J74" s="18"/>
-      <c r="K74" s="43"/>
+      <c r="K74" s="46"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="47">
         <v>2014</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="F75" s="44" t="s">
+      <c r="F75" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="G75" s="44" t="s">
+      <c r="G75" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="H75" s="44" t="s">
+      <c r="H75" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="41" t="s">
         <v>599</v>
       </c>
       <c r="J75" s="16"/>
-      <c r="K75" s="41"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="48"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="42"/>
+      <c r="K76" s="45"/>
     </row>
     <row r="77" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="48"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
       <c r="J77" s="18"/>
-      <c r="K77" s="42"/>
+      <c r="K77" s="45"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="48"/>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="E78" s="44" t="s">
+      <c r="E78" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="G78" s="44" t="s">
+      <c r="G78" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="H78" s="44" t="s">
+      <c r="H78" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="I78" s="44" t="s">
+      <c r="I78" s="41" t="s">
         <v>605</v>
       </c>
       <c r="J78" s="16"/>
-      <c r="K78" s="42"/>
+      <c r="K78" s="45"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="48"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="42"/>
+      <c r="K79" s="45"/>
     </row>
     <row r="80" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="48"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
       <c r="J80" s="18"/>
-      <c r="K80" s="42"/>
+      <c r="K80" s="45"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="48"/>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="41" t="s">
         <v>606</v>
       </c>
-      <c r="E81" s="44" t="s">
+      <c r="E81" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="G81" s="44" t="s">
+      <c r="G81" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="H81" s="44" t="s">
+      <c r="H81" s="41" t="s">
         <v>609</v>
       </c>
-      <c r="I81" s="44" t="s">
+      <c r="I81" s="41" t="s">
         <v>610</v>
       </c>
       <c r="J81" s="16"/>
-      <c r="K81" s="42"/>
+      <c r="K81" s="45"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="48"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="42"/>
+      <c r="K82" s="45"/>
     </row>
     <row r="83" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="49"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
       <c r="J83" s="18"/>
-      <c r="K83" s="43"/>
+      <c r="K83" s="46"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="47">
         <v>2015</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="E84" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G84" s="44" t="s">
+      <c r="G84" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="H84" s="44" t="s">
+      <c r="H84" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="I84" s="44" t="s">
+      <c r="I84" s="41" t="s">
         <v>614</v>
       </c>
       <c r="J84" s="16"/>
-      <c r="K84" s="41"/>
+      <c r="K84" s="44"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="48"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="42"/>
+      <c r="K85" s="45"/>
     </row>
     <row r="86" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="48"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
       <c r="J86" s="18"/>
-      <c r="K86" s="42"/>
+      <c r="K86" s="45"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="48"/>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="E87" s="44" t="s">
+      <c r="E87" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="G87" s="44" t="s">
+      <c r="G87" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="H87" s="44" t="s">
+      <c r="H87" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="I87" s="44" t="s">
+      <c r="I87" s="41" t="s">
         <v>619</v>
       </c>
       <c r="J87" s="16"/>
-      <c r="K87" s="42"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="48"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="42"/>
+      <c r="K88" s="45"/>
     </row>
     <row r="89" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="48"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
       <c r="J89" s="18"/>
-      <c r="K89" s="42"/>
+      <c r="K89" s="45"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="48"/>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="D90" s="44" t="s">
+      <c r="D90" s="41" t="s">
         <v>621</v>
       </c>
-      <c r="E90" s="44" t="s">
+      <c r="E90" s="41" t="s">
         <v>622</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="G90" s="44" t="s">
+      <c r="G90" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="H90" s="44" t="s">
+      <c r="H90" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="I90" s="44" t="s">
+      <c r="I90" s="41" t="s">
         <v>626</v>
       </c>
       <c r="J90" s="16"/>
-      <c r="K90" s="42"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="48"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="42"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="48"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="42"/>
+      <c r="K92" s="45"/>
     </row>
     <row r="93" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="48"/>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="E93" s="44" t="s">
+      <c r="E93" s="41" t="s">
         <v>629</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="G93" s="44" t="s">
+      <c r="G93" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="H93" s="44" t="s">
+      <c r="H93" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="I93" s="44" t="s">
+      <c r="I93" s="41" t="s">
         <v>631</v>
       </c>
       <c r="J93" s="16"/>
-      <c r="K93" s="42"/>
+      <c r="K93" s="45"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="48"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
       <c r="J94" s="17"/>
-      <c r="K94" s="42"/>
+      <c r="K94" s="45"/>
     </row>
     <row r="95" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="49"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
       <c r="J95" s="18"/>
-      <c r="K95" s="43"/>
+      <c r="K95" s="46"/>
     </row>
     <row r="96" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="47">
         <v>2016</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="D96" s="44" t="s">
+      <c r="D96" s="41" t="s">
         <v>632</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="41" t="s">
         <v>633</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G96" s="44" t="s">
+      <c r="G96" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="H96" s="44" t="s">
+      <c r="H96" s="41" t="s">
         <v>635</v>
       </c>
-      <c r="I96" s="44" t="s">
+      <c r="I96" s="41" t="s">
         <v>636</v>
       </c>
       <c r="J96" s="16"/>
-      <c r="K96" s="41"/>
+      <c r="K96" s="44"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="48"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
       <c r="J97" s="17"/>
-      <c r="K97" s="42"/>
+      <c r="K97" s="45"/>
     </row>
     <row r="98" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="48"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
       <c r="J98" s="18"/>
-      <c r="K98" s="42"/>
+      <c r="K98" s="45"/>
     </row>
     <row r="99" spans="2:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="48"/>
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="41" t="s">
         <v>637</v>
       </c>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="G99" s="44" t="s">
+      <c r="G99" s="41" t="s">
         <v>639</v>
       </c>
-      <c r="H99" s="44" t="s">
+      <c r="H99" s="41" t="s">
         <v>640</v>
       </c>
-      <c r="I99" s="44" t="s">
+      <c r="I99" s="41" t="s">
         <v>641</v>
       </c>
       <c r="J99" s="16"/>
-      <c r="K99" s="42"/>
+      <c r="K99" s="45"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="48"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
       <c r="J100" s="17"/>
-      <c r="K100" s="42"/>
+      <c r="K100" s="45"/>
     </row>
     <row r="101" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="48"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
       <c r="J101" s="18"/>
-      <c r="K101" s="42"/>
+      <c r="K101" s="45"/>
     </row>
     <row r="102" spans="2:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="48"/>
-      <c r="C102" s="44" t="s">
+      <c r="C102" s="41" t="s">
         <v>642</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="41" t="s">
         <v>643</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="41" t="s">
         <v>644</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="41" t="s">
         <v>645</v>
       </c>
-      <c r="G102" s="44" t="s">
+      <c r="G102" s="41" t="s">
         <v>646</v>
       </c>
-      <c r="H102" s="44" t="s">
+      <c r="H102" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="I102" s="44" t="s">
+      <c r="I102" s="41" t="s">
         <v>648</v>
       </c>
       <c r="J102" s="16"/>
-      <c r="K102" s="42"/>
+      <c r="K102" s="45"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="48"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
       <c r="J103" s="17"/>
-      <c r="K103" s="42"/>
+      <c r="K103" s="45"/>
     </row>
     <row r="104" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="48"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
       <c r="J104" s="18"/>
-      <c r="K104" s="42"/>
+      <c r="K104" s="45"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="48"/>
-      <c r="C105" s="44" t="s">
+      <c r="C105" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="D105" s="41" t="s">
         <v>649</v>
       </c>
-      <c r="E105" s="44" t="s">
+      <c r="E105" s="41" t="s">
         <v>650</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F105" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="G105" s="44" t="s">
+      <c r="G105" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="H105" s="44" t="s">
+      <c r="H105" s="41" t="s">
         <v>651</v>
       </c>
-      <c r="I105" s="44" t="s">
+      <c r="I105" s="41" t="s">
         <v>652</v>
       </c>
       <c r="J105" s="16"/>
-      <c r="K105" s="42"/>
+      <c r="K105" s="45"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="48"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
       <c r="J106" s="17"/>
-      <c r="K106" s="42"/>
+      <c r="K106" s="45"/>
     </row>
     <row r="107" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="48"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="46"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
       <c r="J107" s="18"/>
-      <c r="K107" s="42"/>
+      <c r="K107" s="45"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="48"/>
-      <c r="C108" s="44" t="s">
+      <c r="C108" s="41" t="s">
         <v>653</v>
       </c>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="E108" s="44" t="s">
+      <c r="E108" s="41" t="s">
         <v>655</v>
       </c>
-      <c r="F108" s="44" t="s">
+      <c r="F108" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="G108" s="44" t="s">
+      <c r="G108" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="H108" s="44" t="s">
+      <c r="H108" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="I108" s="44" t="s">
+      <c r="I108" s="41" t="s">
         <v>658</v>
       </c>
       <c r="J108" s="16"/>
-      <c r="K108" s="42"/>
+      <c r="K108" s="45"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="48"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
       <c r="J109" s="17"/>
-      <c r="K109" s="42"/>
+      <c r="K109" s="45"/>
     </row>
     <row r="110" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="48"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
       <c r="J110" s="18"/>
-      <c r="K110" s="42"/>
+      <c r="K110" s="45"/>
     </row>
     <row r="111" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="48"/>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="44" t="s">
+      <c r="D111" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="E111" s="44" t="s">
+      <c r="E111" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="F111" s="44" t="s">
+      <c r="F111" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G111" s="44" t="s">
+      <c r="G111" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="H111" s="44" t="s">
+      <c r="H111" s="41" t="s">
         <v>663</v>
       </c>
-      <c r="I111" s="44" t="s">
+      <c r="I111" s="41" t="s">
         <v>664</v>
       </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="42"/>
+      <c r="K111" s="45"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="48"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
       <c r="J112" s="17"/>
-      <c r="K112" s="42"/>
+      <c r="K112" s="45"/>
     </row>
     <row r="113" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="49"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
       <c r="J113" s="18"/>
-      <c r="K113" s="43"/>
+      <c r="K113" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K3:K11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="K12:K20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K47"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="K48:K56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="K57:K65"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="K66:K74"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="K75:K83"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="B84:B95"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="B96:B113"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
     <mergeCell ref="K96:K113"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="D99:D101"/>
@@ -8467,6 +8210,263 @@
     <mergeCell ref="C111:C113"/>
     <mergeCell ref="D111:D113"/>
     <mergeCell ref="E111:E113"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="B84:B95"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K83"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="K66:K74"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="K57:K65"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K48:K56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K47"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="K12:K20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10629,8 +10629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE82E6A-8B6B-48D4-AEF5-64634308157A}">
   <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
